--- a/TestCases Daraz.pk.xlsx
+++ b/TestCases Daraz.pk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SQA\SMIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CE4106-52FB-446E-8063-FCE8FD75FF57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AC9674-1AD1-42FA-9B88-F59DB74B556E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="392">
   <si>
     <t>Process/Feature</t>
   </si>
@@ -781,9 +781,6 @@
     <t>TC-062</t>
   </si>
   <si>
-    <t>Guest Checkout</t>
-  </si>
-  <si>
     <t>Verify guest checkout option allows order placement without account creation.</t>
   </si>
   <si>
@@ -1052,6 +1049,331 @@
   </si>
   <si>
     <t>Order review displays correct details including items, quantity, shipping address, and payment method.</t>
+  </si>
+  <si>
+    <t>Checkout</t>
+  </si>
+  <si>
+    <t>Verify user can view the current status of an order</t>
+  </si>
+  <si>
+    <t>Order details display with current status (e.g., "Processing," "Shipped," "Delivered").</t>
+  </si>
+  <si>
+    <t>User has placed an order.</t>
+  </si>
+  <si>
+    <t>Verify an error is shown if order status fails to load</t>
+  </si>
+  <si>
+    <t>TC-076</t>
+  </si>
+  <si>
+    <t>TC-077</t>
+  </si>
+  <si>
+    <t>TC-078</t>
+  </si>
+  <si>
+    <t>TC-079</t>
+  </si>
+  <si>
+    <t>TC-080</t>
+  </si>
+  <si>
+    <t>TC-081</t>
+  </si>
+  <si>
+    <t>TC-082</t>
+  </si>
+  <si>
+    <t>TC-083</t>
+  </si>
+  <si>
+    <t>1. Place an order.
+2. Go to the "Order History" page.
+3. Select an order to view its status.</t>
+  </si>
+  <si>
+    <t>1. Place an order.
+2. Simulate server or connection issues.
+3. Attempt to view the order status.</t>
+  </si>
+  <si>
+    <t>System displays an error message indicating order status cannot be retrieved, suggesting retry.</t>
+  </si>
+  <si>
+    <t>System has a temporary outage.</t>
+  </si>
+  <si>
+    <t>Verify shipment tracking is accessible through courier APIs</t>
+  </si>
+  <si>
+    <t>Verify error message for failed shipment tracking connection</t>
+  </si>
+  <si>
+    <t>Shipment tracking page opens, showing real-time status updates from the integrated courier.</t>
+  </si>
+  <si>
+    <t>Courier API is accessible and order is shipped.</t>
+  </si>
+  <si>
+    <t>1. Place an order with shipping.
+2. Go to order details and click "Track Shipment".</t>
+  </si>
+  <si>
+    <t>1. Place an order with shipping.
+2. Disconnect or simulate API failure for the courier service.
+3. Click "Track Shipment".</t>
+  </si>
+  <si>
+    <t>Courier API is temporarily down.</t>
+  </si>
+  <si>
+    <t>System displays an error message indicating that shipment tracking is currently unavailable.</t>
+  </si>
+  <si>
+    <t>Verify system displays correct tracking number for shipped orders</t>
+  </si>
+  <si>
+    <t>Verify invalid tracking number shows an error in courier system</t>
+  </si>
+  <si>
+    <t>1. Place an order.
+2. Ship the order and generate a tracking number from the backend.
+3. View order details.</t>
+  </si>
+  <si>
+    <t>1. Place an order.
+2. Generate an invalid tracking number.
+3. Click "Track Shipment".</t>
+  </si>
+  <si>
+    <t>Tracking number is displayed on the order details page, and user can copy it if needed.</t>
+  </si>
+  <si>
+    <t>System displays an error message from the courier indicating the tracking number is invalid.</t>
+  </si>
+  <si>
+    <t>Order has an invalid tracking number.</t>
+  </si>
+  <si>
+    <t>Order has shipped with a generated tracking number</t>
+  </si>
+  <si>
+    <t>Verify user receives a notification when order status is updated</t>
+  </si>
+  <si>
+    <t>Verify notifications are sent for each status change</t>
+  </si>
+  <si>
+    <t>Verify no notification is sent if notifications are disabled</t>
+  </si>
+  <si>
+    <t>1. Place an order.
+2. Update order status to "Shipped" from the backend.
+3. Check for notification.</t>
+  </si>
+  <si>
+    <t>1. Place an order.
+2. Sequentially update order status to "Processing," "Shipped," and "Delivered".
+3. Check notifications.</t>
+  </si>
+  <si>
+    <t>1. Place an order.
+2. Disable notifications.
+3. Update order status from backend.
+4. Check for notifications.</t>
+  </si>
+  <si>
+    <t>User receives a notification for the updated order status (e.g., "Your order has been shipped").</t>
+  </si>
+  <si>
+    <t>User does not receive any notification for the order status update.</t>
+  </si>
+  <si>
+    <t>User receives separate notifications for each order status change.</t>
+  </si>
+  <si>
+    <t>Notifications are enabled and system is set to send updates.</t>
+  </si>
+  <si>
+    <t>Notifications are disabled by the user.</t>
+  </si>
+  <si>
+    <t>User has enabled notifications for order updates.</t>
+  </si>
+  <si>
+    <t>TC-084</t>
+  </si>
+  <si>
+    <t>Verify user can resend order status notifications if missed</t>
+  </si>
+  <si>
+    <t>1. Place an order.
+2. Disable notifications temporarily.
+3. Enable notifications again.
+4. Resend status notifications.</t>
+  </si>
+  <si>
+    <t>System resends all recent status notifications (if applicable) after notifications are re-enabled.</t>
+  </si>
+  <si>
+    <t>Order notifications were temporarily disabled.</t>
+  </si>
+  <si>
+    <t>Verify notification displays correct order details</t>
+  </si>
+  <si>
+    <t>1. Place an order.
+2. Ship the order.
+3. Check the notification for shipment status.</t>
+  </si>
+  <si>
+    <t>Notification displays accurate details such as order ID, status ("Shipped"), and estimated delivery date if applicable.</t>
+  </si>
+  <si>
+    <t>User is subscribed to notifications for order status updates.</t>
+  </si>
+  <si>
+    <t>Verify error when accessing order status for a canceled order</t>
+  </si>
+  <si>
+    <t>1. Place an order.
+2. Cancel the order.
+3. Attempt to view order status.</t>
+  </si>
+  <si>
+    <t>System displays a message indicating that the order has been canceled, and no further status updates are available.</t>
+  </si>
+  <si>
+    <t>Order has been canceled by the user.</t>
+  </si>
+  <si>
+    <t>Verify status shows as "Delivered" after final delivery</t>
+  </si>
+  <si>
+    <t>1. Place an order and simulate shipping and delivery through status updates.
+2. Mark the order as "Delivered".</t>
+  </si>
+  <si>
+    <t>Order status shows as "Delivered" on the order details page, indicating successful delivery.</t>
+  </si>
+  <si>
+    <t>Order has been fully delivered.</t>
+  </si>
+  <si>
+    <t>TC-085</t>
+  </si>
+  <si>
+    <t>TC-086</t>
+  </si>
+  <si>
+    <t>TC-087</t>
+  </si>
+  <si>
+    <t>TC-088</t>
+  </si>
+  <si>
+    <t>Order Tracking</t>
+  </si>
+  <si>
+    <t>Seller Dashboard</t>
+  </si>
+  <si>
+    <t>TC-089</t>
+  </si>
+  <si>
+    <t>TC-090</t>
+  </si>
+  <si>
+    <t>TC-091</t>
+  </si>
+  <si>
+    <t>TC-092</t>
+  </si>
+  <si>
+    <t>TC-093</t>
+  </si>
+  <si>
+    <t>Verify vendor can edit an existing product listing</t>
+  </si>
+  <si>
+    <t>Verify an error is shown if mandatory fields are missing in product listing</t>
+  </si>
+  <si>
+    <t>Verify vendor can delete a product listing</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Navigate to the "Add Product" page.
+3. Fill in product details and upload images.
+4. Save the listing.</t>
+  </si>
+  <si>
+    <t>Verify vendor can add a new product listing with images and details.</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Navigate to the "Product Listings" page.
+3. Select a product and click "Edit".
+4. Update details.
+5. Save changes.</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Go to "Add Product" page.
+3. Leave mandatory fields (e.g., title, price) empty.
+4. Save the listing.</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Go to "Product Listings".
+3. Select a product and click "Delete".
+4. Confirm deletion.</t>
+  </si>
+  <si>
+    <t>Product is successfully added and appears in the product list.</t>
+  </si>
+  <si>
+    <t>Product details are updated and reflect the latest changes in the product list.</t>
+  </si>
+  <si>
+    <t>Vendor has access to the seller dashboard.</t>
+  </si>
+  <si>
+    <t>Vendor has at least one product listed.</t>
+  </si>
+  <si>
+    <t>1. Vendor has access to the seller dashboard.
+2. Vendor has at least one product listed.</t>
+  </si>
+  <si>
+    <t>Product details and images</t>
+  </si>
+  <si>
+    <t>Updated product details</t>
+  </si>
+  <si>
+    <t>System displays an error message indicating that mandatory fields are required.</t>
+  </si>
+  <si>
+    <t>Product is removed from the product list.</t>
+  </si>
+  <si>
+    <t>Vendor is logged into the seller dashboard.</t>
+  </si>
+  <si>
+    <t>Verify is not able to delete a product listing</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Go to "Product Listings".
+3. Select a product and click "Delete".
+4. Discard deletion.</t>
+  </si>
+  <si>
+    <t>Product is not removed from the product list and user return to the product listing.</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1397,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1124,8 +1446,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1148,20 +1476,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1206,16 +1525,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1498,10 +1823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:A80"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1894,7 +2219,7 @@
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="17" t="s">
         <v>74</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -2123,7 +2448,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
       <c r="B31" s="7" t="s">
         <v>115</v>
@@ -2752,10 +3077,10 @@
         <v>82</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>217</v>
@@ -2773,10 +3098,10 @@
         <v>82</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>218</v>
@@ -2793,25 +3118,25 @@
     </row>
     <row r="65" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
-        <v>221</v>
+        <v>298</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>210</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="G65" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -2820,19 +3145,19 @@
         <v>219</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="E66" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -2841,291 +3166,634 @@
         <v>220</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="19"/>
       <c r="B68" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="19"/>
       <c r="B69" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C69" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="19"/>
       <c r="B70" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="19"/>
       <c r="B71" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="19"/>
       <c r="B72" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
       <c r="B78" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D80" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G80" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="9"/>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
       <c r="E81" s="10"/>
       <c r="G81" s="10"/>
     </row>
+    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="20"/>
+      <c r="B83" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A84" s="20"/>
+      <c r="B84" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85" s="20"/>
+      <c r="B85" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="20"/>
+      <c r="B86" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="20"/>
+      <c r="B87" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A88" s="20"/>
+      <c r="B88" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="20"/>
+      <c r="B89" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A90" s="20"/>
+      <c r="B90" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="20"/>
+      <c r="B91" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="20"/>
+      <c r="B92" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A93" s="20"/>
+      <c r="B93" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="20"/>
+      <c r="B94" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="16"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="G95" s="10"/>
+    </row>
+    <row r="96" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A96" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A97" s="21"/>
+      <c r="B97" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A98" s="21"/>
+      <c r="B98" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="21"/>
+      <c r="B99" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B100" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="A82:A94"/>
+    <mergeCell ref="A96:A99"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A18"/>
     <mergeCell ref="A20:A52"/>

--- a/TestCases Daraz.pk.xlsx
+++ b/TestCases Daraz.pk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SQA\SMIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AC9674-1AD1-42FA-9B88-F59DB74B556E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8574018-D992-4215-AAFC-A2AA53669193}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="457">
   <si>
     <t>Process/Feature</t>
   </si>
@@ -1374,6 +1374,224 @@
   </si>
   <si>
     <t>Product is not removed from the product list and user return to the product listing.</t>
+  </si>
+  <si>
+    <t>Verify vendor can monitor sales performance</t>
+  </si>
+  <si>
+    <t>Verify error when accessing sales data with no sales history</t>
+  </si>
+  <si>
+    <t>Verify vendor can monitor inventory levels for all products</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Navigate to the "Sales Overview" section.
+3. View metrics (e.g., total sales, revenue).</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Go to the "Sales Overview" section.
+3. Check for metrics without any sales history.</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Navigate to the "Inventory" section.
+3. Review current stock levels for each product.</t>
+  </si>
+  <si>
+    <t>Dashboard displays accurate sales performance metrics for the selected timeframe.</t>
+  </si>
+  <si>
+    <t>System displays a message indicating no sales data available or shows "0" values for metrics.</t>
+  </si>
+  <si>
+    <t>Inventory section displays accurate stock levels and indicates low or out-of-stock products.</t>
+  </si>
+  <si>
+    <t>Vendor has active product listings with inventory quantities.</t>
+  </si>
+  <si>
+    <t>Vendor has no recorded sales history.</t>
+  </si>
+  <si>
+    <t>Vendor has recent sales data.</t>
+  </si>
+  <si>
+    <t>TC-094</t>
+  </si>
+  <si>
+    <t>TC-095</t>
+  </si>
+  <si>
+    <t>TC-096</t>
+  </si>
+  <si>
+    <t>TC-097</t>
+  </si>
+  <si>
+    <t>Verify system shows a warning for low or out-of-stock products</t>
+  </si>
+  <si>
+    <t>Verify vendor can access order fulfillment options</t>
+  </si>
+  <si>
+    <t>Verify error if attempting to access fulfillment for a completed order</t>
+  </si>
+  <si>
+    <t>TC-098</t>
+  </si>
+  <si>
+    <t>TC-099</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Go to "Inventory".
+3. Review low stock warning for products close to or at 0 quantity.</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Go to "Orders" section.
+3. Select an order.
+4. Check for fulfillment options (e.g., shipping methods, update status).</t>
+  </si>
+  <si>
+    <t>System displays a warning or notification for products with low or zero inventory, prompting vendor to restock.</t>
+  </si>
+  <si>
+    <t>Vendor can view available options and select appropriate fulfillment actions, such as marking order as shipped.</t>
+  </si>
+  <si>
+    <t>Vendor has pending orders ready for fulfillment.</t>
+  </si>
+  <si>
+    <t>At least one product has low or out-of-stock levels.</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Go to "Orders".
+3. Select a completed order and check fulfillment options.</t>
+  </si>
+  <si>
+    <t>System restricts further fulfillment actions on completed orders and displays a message indicating order status as complete.</t>
+  </si>
+  <si>
+    <t>Vendor has at least one completed order.</t>
+  </si>
+  <si>
+    <t>TC-100</t>
+  </si>
+  <si>
+    <t>TC-101</t>
+  </si>
+  <si>
+    <t>TC-102</t>
+  </si>
+  <si>
+    <t>Verify vendor can view earnings overview in transaction history</t>
+  </si>
+  <si>
+    <t>Verify system shows accurate earnings breakdown by date or category</t>
+  </si>
+  <si>
+    <t>Verify error message if no earnings data is available</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Navigate to "Earnings" or "Transaction History" section.
+3. Review summary of earnings.</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Go to "Earnings" section.
+3. Filter earnings by date range or product category.</t>
+  </si>
+  <si>
+    <t>System displays total earnings, recent transactions, and detailed records of each transaction (e.g., dates, amounts).</t>
+  </si>
+  <si>
+    <t>System displays accurate earnings based on selected filters, with totals and breakdowns correctly updated.</t>
+  </si>
+  <si>
+    <t>Vendor has recent transaction and earnings history.</t>
+  </si>
+  <si>
+    <t>Vendor has transaction records across different dates/categories.</t>
+  </si>
+  <si>
+    <t>Date range or category filter values</t>
+  </si>
+  <si>
+    <t>Verify vendor can download transaction history</t>
+  </si>
+  <si>
+    <t>Verify error if download fails due to connection issues</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Go to "Earnings" section.
+3. Check summary with no transaction history.</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Go to "Transaction History".
+3. Click "Download" to export history.</t>
+  </si>
+  <si>
+    <t>System displays a message indicating no earnings data is available or shows "0" for totals.</t>
+  </si>
+  <si>
+    <t>Transaction history downloads as a file (e.g., CSV) with accurate details of each transaction.</t>
+  </si>
+  <si>
+    <t>Vendor has transaction records.</t>
+  </si>
+  <si>
+    <t>Vendor has no earnings data available.</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Go to "Transaction History".
+3. Disconnect from the network and try to download.</t>
+  </si>
+  <si>
+    <t>System displays an error message indicating download failure due to connection issues and prompts user to retry.</t>
+  </si>
+  <si>
+    <t>Vendor has transaction records but encounters network issues.</t>
+  </si>
+  <si>
+    <t>TC-103</t>
+  </si>
+  <si>
+    <t>TC-104</t>
+  </si>
+  <si>
+    <t>TC-105</t>
+  </si>
+  <si>
+    <t>TC-106</t>
+  </si>
+  <si>
+    <t>TC-107</t>
+  </si>
+  <si>
+    <t>TC-108</t>
+  </si>
+  <si>
+    <t>TC-109</t>
+  </si>
+  <si>
+    <t>Sales volume and revenue metrics are displayed accurately based on the selected period, including totals and trends.</t>
+  </si>
+  <si>
+    <t>System displays a message indicating 'No data available' for the selected period.</t>
+  </si>
+  <si>
+    <t>Sales performance metrics display accurately for the selected product category.</t>
+  </si>
+  <si>
+    <t>Customer feedback and ratings for the product display accurately, showing ratings, comments, and submission dates.</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1615,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1452,6 +1670,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1480,7 +1704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1519,14 +1743,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1537,10 +1767,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1823,10 +2050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="G101" sqref="G101"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1863,7 +2090,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1886,7 +2113,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1916,7 +2143,7 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1939,7 +2166,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
@@ -1958,7 +2185,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
@@ -1979,7 +2206,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
@@ -2000,7 +2227,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
@@ -2021,7 +2248,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
@@ -2042,7 +2269,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
@@ -2063,7 +2290,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
@@ -2084,7 +2311,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
+      <c r="A13" s="18"/>
       <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
@@ -2105,7 +2332,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="7" t="s">
         <v>41</v>
       </c>
@@ -2126,7 +2353,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="7" t="s">
         <v>45</v>
       </c>
@@ -2147,7 +2374,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="7" t="s">
         <v>46</v>
       </c>
@@ -2168,7 +2395,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="7" t="s">
         <v>49</v>
       </c>
@@ -2189,7 +2416,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="7" t="s">
         <v>50</v>
       </c>
@@ -2219,7 +2446,7 @@
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="19" t="s">
         <v>74</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -2239,7 +2466,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="7" t="s">
         <v>76</v>
       </c>
@@ -2260,7 +2487,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="7" t="s">
         <v>77</v>
       </c>
@@ -2281,7 +2508,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="7" t="s">
         <v>78</v>
       </c>
@@ -2302,7 +2529,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="7" t="s">
         <v>79</v>
       </c>
@@ -2323,7 +2550,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="7" t="s">
         <v>80</v>
       </c>
@@ -2344,7 +2571,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
+      <c r="A26" s="19"/>
       <c r="B26" s="7" t="s">
         <v>96</v>
       </c>
@@ -2365,7 +2592,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="17"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="7" t="s">
         <v>99</v>
       </c>
@@ -2386,7 +2613,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="7" t="s">
         <v>112</v>
       </c>
@@ -2407,7 +2634,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="7" t="s">
         <v>113</v>
       </c>
@@ -2428,7 +2655,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="7" t="s">
         <v>114</v>
       </c>
@@ -2449,7 +2676,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="7" t="s">
         <v>115</v>
       </c>
@@ -2470,7 +2697,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="7" t="s">
         <v>120</v>
       </c>
@@ -2491,7 +2718,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="7" t="s">
         <v>121</v>
       </c>
@@ -2512,7 +2739,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="7" t="s">
         <v>122</v>
       </c>
@@ -2533,7 +2760,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="7" t="s">
         <v>123</v>
       </c>
@@ -2554,7 +2781,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="7" t="s">
         <v>124</v>
       </c>
@@ -2575,7 +2802,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="7" t="s">
         <v>125</v>
       </c>
@@ -2596,7 +2823,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="7" t="s">
         <v>126</v>
       </c>
@@ -2617,7 +2844,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="7" t="s">
         <v>131</v>
       </c>
@@ -2638,7 +2865,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="7" t="s">
         <v>134</v>
       </c>
@@ -2659,7 +2886,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="7" t="s">
         <v>135</v>
       </c>
@@ -2680,7 +2907,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A42" s="17"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="7" t="s">
         <v>144</v>
       </c>
@@ -2701,7 +2928,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="7" t="s">
         <v>145</v>
       </c>
@@ -2722,7 +2949,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="7" t="s">
         <v>151</v>
       </c>
@@ -2743,7 +2970,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="7" t="s">
         <v>152</v>
       </c>
@@ -2764,7 +2991,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A46" s="17"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="7" t="s">
         <v>153</v>
       </c>
@@ -2785,7 +3012,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
+      <c r="A47" s="19"/>
       <c r="B47" s="7" t="s">
         <v>158</v>
       </c>
@@ -2806,7 +3033,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="7" t="s">
         <v>159</v>
       </c>
@@ -2827,7 +3054,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="7" t="s">
         <v>167</v>
       </c>
@@ -2848,7 +3075,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
+      <c r="A50" s="19"/>
       <c r="B50" s="7" t="s">
         <v>168</v>
       </c>
@@ -2869,7 +3096,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
+      <c r="A51" s="19"/>
       <c r="B51" s="7" t="s">
         <v>173</v>
       </c>
@@ -2890,7 +3117,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="7" t="s">
         <v>174</v>
       </c>
@@ -2920,7 +3147,7 @@
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="18" t="s">
+      <c r="A54" s="20" t="s">
         <v>187</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -2940,7 +3167,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
+      <c r="A55" s="20"/>
       <c r="B55" s="7" t="s">
         <v>181</v>
       </c>
@@ -2958,7 +3185,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="18"/>
+      <c r="A56" s="20"/>
       <c r="B56" s="7" t="s">
         <v>182</v>
       </c>
@@ -2976,7 +3203,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="18"/>
+      <c r="A57" s="20"/>
       <c r="B57" s="7" t="s">
         <v>183</v>
       </c>
@@ -2994,7 +3221,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="18"/>
+      <c r="A58" s="20"/>
       <c r="B58" s="7" t="s">
         <v>184</v>
       </c>
@@ -3012,7 +3239,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="18"/>
+      <c r="A59" s="20"/>
       <c r="B59" s="7" t="s">
         <v>185</v>
       </c>
@@ -3030,7 +3257,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="18"/>
+      <c r="A60" s="20"/>
       <c r="B60" s="7" t="s">
         <v>186</v>
       </c>
@@ -3048,7 +3275,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="18"/>
+      <c r="A61" s="20"/>
       <c r="B61" s="7" t="s">
         <v>207</v>
       </c>
@@ -3066,7 +3293,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="18"/>
+      <c r="A62" s="20"/>
       <c r="B62" s="7" t="s">
         <v>208</v>
       </c>
@@ -3087,7 +3314,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="18"/>
+      <c r="A63" s="20"/>
       <c r="B63" s="7" t="s">
         <v>209</v>
       </c>
@@ -3117,7 +3344,7 @@
       <c r="G64" s="10"/>
     </row>
     <row r="65" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="21" t="s">
         <v>298</v>
       </c>
       <c r="B65" s="7" t="s">
@@ -3140,7 +3367,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
+      <c r="A66" s="21"/>
       <c r="B66" s="7" t="s">
         <v>219</v>
       </c>
@@ -3161,7 +3388,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="7" t="s">
         <v>220</v>
       </c>
@@ -3182,7 +3409,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="7" t="s">
         <v>232</v>
       </c>
@@ -3203,7 +3430,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="7" t="s">
         <v>233</v>
       </c>
@@ -3224,7 +3451,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
+      <c r="A70" s="21"/>
       <c r="B70" s="7" t="s">
         <v>240</v>
       </c>
@@ -3245,7 +3472,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
+      <c r="A71" s="21"/>
       <c r="B71" s="7" t="s">
         <v>241</v>
       </c>
@@ -3266,7 +3493,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
+      <c r="A72" s="21"/>
       <c r="B72" s="7" t="s">
         <v>259</v>
       </c>
@@ -3287,7 +3514,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="7" t="s">
         <v>260</v>
       </c>
@@ -3308,7 +3535,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="7" t="s">
         <v>261</v>
       </c>
@@ -3329,7 +3556,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
+      <c r="A75" s="21"/>
       <c r="B75" s="7" t="s">
         <v>262</v>
       </c>
@@ -3350,7 +3577,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
+      <c r="A76" s="21"/>
       <c r="B76" s="7" t="s">
         <v>263</v>
       </c>
@@ -3368,7 +3595,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="7" t="s">
         <v>264</v>
       </c>
@@ -3389,7 +3616,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
+      <c r="A78" s="21"/>
       <c r="B78" s="7" t="s">
         <v>286</v>
       </c>
@@ -3407,7 +3634,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="7" t="s">
         <v>287</v>
       </c>
@@ -3425,7 +3652,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
+      <c r="A80" s="21"/>
       <c r="B80" s="7" t="s">
         <v>288</v>
       </c>
@@ -3450,7 +3677,7 @@
       <c r="G81" s="10"/>
     </row>
     <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="20" t="s">
+      <c r="A82" s="16" t="s">
         <v>364</v>
       </c>
       <c r="B82" s="7" t="s">
@@ -3470,7 +3697,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="20"/>
+      <c r="A83" s="16"/>
       <c r="B83" s="7" t="s">
         <v>304</v>
       </c>
@@ -3488,7 +3715,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="20"/>
+      <c r="A84" s="16"/>
       <c r="B84" s="7" t="s">
         <v>305</v>
       </c>
@@ -3506,7 +3733,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="20"/>
+      <c r="A85" s="16"/>
       <c r="B85" s="7" t="s">
         <v>306</v>
       </c>
@@ -3524,7 +3751,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="20"/>
+      <c r="A86" s="16"/>
       <c r="B86" s="7" t="s">
         <v>307</v>
       </c>
@@ -3542,7 +3769,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="20"/>
+      <c r="A87" s="16"/>
       <c r="B87" s="7" t="s">
         <v>308</v>
       </c>
@@ -3560,7 +3787,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A88" s="20"/>
+      <c r="A88" s="16"/>
       <c r="B88" s="7" t="s">
         <v>309</v>
       </c>
@@ -3578,7 +3805,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A89" s="20"/>
+      <c r="A89" s="16"/>
       <c r="B89" s="7" t="s">
         <v>310</v>
       </c>
@@ -3596,7 +3823,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A90" s="20"/>
+      <c r="A90" s="16"/>
       <c r="B90" s="7" t="s">
         <v>343</v>
       </c>
@@ -3614,7 +3841,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A91" s="20"/>
+      <c r="A91" s="16"/>
       <c r="B91" s="7" t="s">
         <v>360</v>
       </c>
@@ -3632,7 +3859,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A92" s="20"/>
+      <c r="A92" s="16"/>
       <c r="B92" s="7" t="s">
         <v>361</v>
       </c>
@@ -3650,7 +3877,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A93" s="20"/>
+      <c r="A93" s="16"/>
       <c r="B93" s="7" t="s">
         <v>362</v>
       </c>
@@ -3668,7 +3895,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="20"/>
+      <c r="A94" s="16"/>
       <c r="B94" s="7" t="s">
         <v>363</v>
       </c>
@@ -3686,7 +3913,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="16"/>
+      <c r="A95" s="14"/>
       <c r="B95" s="9"/>
       <c r="C95" s="10"/>
       <c r="D95" s="10"/>
@@ -3694,7 +3921,7 @@
       <c r="G95" s="10"/>
     </row>
     <row r="96" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A96" s="21" t="s">
+      <c r="A96" s="22" t="s">
         <v>365</v>
       </c>
       <c r="B96" s="7" t="s">
@@ -3717,7 +3944,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A97" s="21"/>
+      <c r="A97" s="22"/>
       <c r="B97" s="7" t="s">
         <v>367</v>
       </c>
@@ -3738,7 +3965,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A98" s="21"/>
+      <c r="A98" s="22"/>
       <c r="B98" s="7" t="s">
         <v>368</v>
       </c>
@@ -3756,7 +3983,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A99" s="21"/>
+      <c r="A99" s="22"/>
       <c r="B99" s="7" t="s">
         <v>369</v>
       </c>
@@ -3774,6 +4001,7 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A100" s="22"/>
       <c r="B100" s="7" t="s">
         <v>370</v>
       </c>
@@ -3788,17 +4016,262 @@
       </c>
       <c r="G100" s="2" t="s">
         <v>391</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A101" s="22"/>
+      <c r="B101" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A102" s="22"/>
+      <c r="B102" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A103" s="22"/>
+      <c r="B103" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A104" s="22"/>
+      <c r="B104" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A105" s="22"/>
+      <c r="B105" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A106" s="22"/>
+      <c r="B106" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107" s="22"/>
+      <c r="B107" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A108" s="22"/>
+      <c r="B108" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A109" s="22"/>
+      <c r="B109" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="22"/>
+      <c r="B110" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A111" s="22"/>
+      <c r="B111" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="9"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="G112" s="10"/>
+    </row>
+    <row r="113" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B113" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B114" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B115" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B116" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="15" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A82:A94"/>
-    <mergeCell ref="A96:A99"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A18"/>
     <mergeCell ref="A20:A52"/>
     <mergeCell ref="A54:A63"/>
     <mergeCell ref="A65:A80"/>
+    <mergeCell ref="A96:A111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TestCases Daraz.pk.xlsx
+++ b/TestCases Daraz.pk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SQA\SMIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8574018-D992-4215-AAFC-A2AA53669193}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3240A9-B38B-4889-8CEA-0A5D36F42367}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="521">
   <si>
     <t>Process/Feature</t>
   </si>
@@ -1592,6 +1592,233 @@
   </si>
   <si>
     <t>Customer feedback and ratings for the product display accurately, showing ratings, comments, and submission dates.</t>
+  </si>
+  <si>
+    <t>Verify seller can view sales volume and revenue over a selected period</t>
+  </si>
+  <si>
+    <t>Verify error message if no sales data is available for selected period</t>
+  </si>
+  <si>
+    <t>Verify seller can filter sales performance data by product category</t>
+  </si>
+  <si>
+    <t>Verify seller can view customer feedback and ratings for products</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Navigate to the 'Sales Performance' section.
+3. Select a date range for tracking.
+4. View sales metrics.</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Go to 'Sales Performance'.
+3. Select a date range with no recorded sales.
+4. View sales data.</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Go to 'Sales Performance'.
+3. Select a product category filter.
+4. View updated metrics.</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Navigate to the 'Customer Feedback' section.
+3. View ratings and comments for a product.</t>
+  </si>
+  <si>
+    <t>Seller has recorded sales data for the selected date range.</t>
+  </si>
+  <si>
+    <t>No sales data exists for the selected date range.</t>
+  </si>
+  <si>
+    <t>Seller has categorized products and sales data.</t>
+  </si>
+  <si>
+    <t>Seller has active product listings with customer feedback.</t>
+  </si>
+  <si>
+    <t>Date range</t>
+  </si>
+  <si>
+    <t>Product category</t>
+  </si>
+  <si>
+    <t>TC-110</t>
+  </si>
+  <si>
+    <t>TC-111</t>
+  </si>
+  <si>
+    <t>TC-112</t>
+  </si>
+  <si>
+    <t>TC-113</t>
+  </si>
+  <si>
+    <t>TC-114</t>
+  </si>
+  <si>
+    <t>Verify error message if no feedback is available for selected product</t>
+  </si>
+  <si>
+    <t>Verify seller can sort customer feedback by rating</t>
+  </si>
+  <si>
+    <t>Verify seller can review average rating across all products</t>
+  </si>
+  <si>
+    <t>Verify error message if trying to access ratings for removed product</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Go to 'Customer Feedback'.
+3. Select a product with no feedback.
+4. View feedback.</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Navigate to 'Customer Feedback'.
+3. Select a product.
+4. Sort feedback by rating.</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Go to 'Customer Feedback' summary.
+3. View the overall average rating across all products.</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Go to 'Customer Feedback'.
+3. Attempt to access ratings for a removed product.</t>
+  </si>
+  <si>
+    <t>System displays a message indicating 'No feedback available' for the selected product.</t>
+  </si>
+  <si>
+    <t>Feedback is sorted correctly based on ratings (e.g., highest to lowest), showing the most relevant comments at the top.</t>
+  </si>
+  <si>
+    <t>Average rating displays accurately based on individual product ratings, offering an overview of customer satisfaction.</t>
+  </si>
+  <si>
+    <t>System displays an error message indicating that the product no longer exists, preventing access to its feedback or ratings.</t>
+  </si>
+  <si>
+    <t>Selected product has no customer feedback.</t>
+  </si>
+  <si>
+    <t>Seller has customer feedback with ratings for the selected product.</t>
+  </si>
+  <si>
+    <t>Seller has products with customer ratings.</t>
+  </si>
+  <si>
+    <t>Product has been removed from listings.</t>
+  </si>
+  <si>
+    <t>Product name</t>
+  </si>
+  <si>
+    <t>Verify seller can track shipping performance by delivery times</t>
+  </si>
+  <si>
+    <t>Verify seller can view delayed shipments for analysis</t>
+  </si>
+  <si>
+    <t>Verify error if no shipping data is available for selected timeframe</t>
+  </si>
+  <si>
+    <t>Verify seller can download performance data for sales, feedback, and shipping</t>
+  </si>
+  <si>
+    <t>TC-115</t>
+  </si>
+  <si>
+    <t>TC-116</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Go to 'Shipping Performance' section.
+3. View average delivery times.</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Navigate to 'Shipping Performance'.
+3. Filter data to show only delayed shipments.</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Go to 'Shipping Performance'.
+3. Select a timeframe with no shipping records.
+4. View performance metrics.</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Navigate to 'Sales Performance,' 'Customer Feedback,' and 'Shipping Performance'.
+3. Click 'Download'.</t>
+  </si>
+  <si>
+    <t>Average delivery time displays accurately based on shipping data, showing on-time or delayed deliveries.</t>
+  </si>
+  <si>
+    <t>Delayed shipments are accurately filtered and displayed for analysis, showing reasons for delay if available.</t>
+  </si>
+  <si>
+    <t>System displays a message indicating 'No data available' for the selected timeframe.</t>
+  </si>
+  <si>
+    <t>System generates and downloads performance data as a file (e.g., CSV), containing sales, feedback, and shipping details for the selected parameters.</t>
+  </si>
+  <si>
+    <t>Seller has recent shipping and delivery data.</t>
+  </si>
+  <si>
+    <t>Seller has delayed shipment data.</t>
+  </si>
+  <si>
+    <t>No shipping records for the selected date range.</t>
+  </si>
+  <si>
+    <t>Seller has relevant performance data in all sections.</t>
+  </si>
+  <si>
+    <t>TC-117</t>
+  </si>
+  <si>
+    <t>TC-118</t>
+  </si>
+  <si>
+    <t>Verify error when attempting download with no internet connection</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Navigate to any performance section (e.g., Sales Performance).
+3. Disconnect network.
+4. Try to download.</t>
+  </si>
+  <si>
+    <t>System displays an error message indicating download failed due to lack of internet connection, prompting user to retry when connection is available.</t>
+  </si>
+  <si>
+    <t>Seller dashboard is accessed without internet connection.</t>
+  </si>
+  <si>
+    <t>Verify seller can view percentage of on-time deliveries</t>
+  </si>
+  <si>
+    <t>1. Log in to the seller dashboard.
+2. Navigate to 'Shipping Performance'.
+3. View percentage of on-time deliveries for selected period.</t>
+  </si>
+  <si>
+    <t>Dashboard displays accurate percentage of on-time deliveries, showing performance trends over the selected timeframe.</t>
+  </si>
+  <si>
+    <t>Seller has shipment data for on-time and delayed deliveries.</t>
   </si>
 </sst>
 </file>
@@ -2050,10 +2277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" topLeftCell="B122" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4226,52 +4453,271 @@
       <c r="E112" s="10"/>
       <c r="G112" s="10"/>
     </row>
-    <row r="113" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B113" s="15" t="s">
         <v>448</v>
       </c>
+      <c r="C113" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>461</v>
+      </c>
       <c r="G113" s="2" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="114" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B114" s="15" t="s">
         <v>449</v>
       </c>
+      <c r="C114" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>462</v>
+      </c>
       <c r="G114" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="115" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B115" s="15" t="s">
         <v>450</v>
       </c>
+      <c r="C115" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>463</v>
+      </c>
       <c r="G115" s="2" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="116" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B116" s="15" t="s">
         <v>451</v>
       </c>
+      <c r="C116" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>464</v>
+      </c>
       <c r="G116" s="2" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B117" s="15" t="s">
         <v>452</v>
       </c>
+      <c r="C117" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B118" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B119" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B120" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B121" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B122" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B123" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B124" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="B125" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="B126" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>519</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A96:A111"/>
     <mergeCell ref="A82:A94"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A18"/>
     <mergeCell ref="A20:A52"/>
     <mergeCell ref="A54:A63"/>
     <mergeCell ref="A65:A80"/>
-    <mergeCell ref="A96:A111"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TestCases Daraz.pk.xlsx
+++ b/TestCases Daraz.pk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SQA\SMIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F3240A9-B38B-4889-8CEA-0A5D36F42367}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E10C22-A1BC-4ABF-8762-7CCC41D85D03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="671">
   <si>
     <t>Process/Feature</t>
   </si>
@@ -1819,6 +1819,530 @@
   </si>
   <si>
     <t>Seller has shipment data for on-time and delayed deliveries.</t>
+  </si>
+  <si>
+    <t>TC-119</t>
+  </si>
+  <si>
+    <t>TC-120</t>
+  </si>
+  <si>
+    <t>TC-121</t>
+  </si>
+  <si>
+    <t>Verify admin can add a new homepage banner with image and link</t>
+  </si>
+  <si>
+    <t>Verify error message when adding a banner without required fields</t>
+  </si>
+  <si>
+    <t>Verify admin can edit existing promotional content</t>
+  </si>
+  <si>
+    <t>Verify admin can add a featured product to the homepage</t>
+  </si>
+  <si>
+    <t>Verify error when adding non-existent product to featured list</t>
+  </si>
+  <si>
+    <t>1. Log in to the admin panel.
+2. Navigate to 'Homepage Banners'.
+3. Add a new banner with image and link.
+4. Save changes.</t>
+  </si>
+  <si>
+    <t>1. Log in to the admin panel.
+2. Go to 'Homepage Banners'.
+3. Add a new banner without required fields.
+4. Attempt to save.</t>
+  </si>
+  <si>
+    <t>1. Log in to the admin panel.
+2. Navigate to 'Promotional Content'.
+3. Edit an existing promotion.
+4. Save changes.</t>
+  </si>
+  <si>
+    <t>1. Log in to the admin panel.
+2. Navigate to 'Featured Products'.
+3. Add a valid product to the featured section.
+4. Save changes.</t>
+  </si>
+  <si>
+    <t>1. Log in to the admin panel.
+2. Go to 'Featured Products'.
+3. Attempt to add a non-existent product.
+4. Save changes.</t>
+  </si>
+  <si>
+    <t>Banner is added successfully, displaying on the homepage with the correct image and link.</t>
+  </si>
+  <si>
+    <t>System shows an error message prompting required fields are missing.</t>
+  </si>
+  <si>
+    <t>Promotional content is updated successfully, displaying revised content on the site.</t>
+  </si>
+  <si>
+    <t>Product is added to the featured section, displaying on the homepage.</t>
+  </si>
+  <si>
+    <t>System displays an error message indicating the product does not exist.</t>
+  </si>
+  <si>
+    <t>Admin has permissions to manage homepage banners.</t>
+  </si>
+  <si>
+    <t>Admin panel is accessible, admin has permissions to manage banners.</t>
+  </si>
+  <si>
+    <t>Admin has permissions to edit promotional content.</t>
+  </si>
+  <si>
+    <t>Admin has permissions to manage featured products.</t>
+  </si>
+  <si>
+    <t>Non-existent product ID is available for testing.</t>
+  </si>
+  <si>
+    <t>Image URL, Link</t>
+  </si>
+  <si>
+    <t>Promotion text</t>
+  </si>
+  <si>
+    <t>Valid product ID</t>
+  </si>
+  <si>
+    <t>Non-existent product ID</t>
+  </si>
+  <si>
+    <t>TC-122</t>
+  </si>
+  <si>
+    <t>TC-123</t>
+  </si>
+  <si>
+    <t>TC-124</t>
+  </si>
+  <si>
+    <t>TC-125</t>
+  </si>
+  <si>
+    <t>TC-126</t>
+  </si>
+  <si>
+    <t>Verify admin can update site-wide settings for payment gateways</t>
+  </si>
+  <si>
+    <t>Verify error message when saving payment settings with invalid data</t>
+  </si>
+  <si>
+    <t>Verify admin can change site-wide shipping options</t>
+  </si>
+  <si>
+    <t>Verify error message when selecting unsupported shipping option</t>
+  </si>
+  <si>
+    <t>Verify admin can view user activity logs</t>
+  </si>
+  <si>
+    <t>TC-127</t>
+  </si>
+  <si>
+    <t>TC-128</t>
+  </si>
+  <si>
+    <t>1. Log in to the admin panel.
+2. Navigate to 'Site Settings'.
+3. Go to 'Payment Gateways'.
+4. Modify and save changes.</t>
+  </si>
+  <si>
+    <t>1. Log in to the admin panel.
+2. Go to 'Payment Gateways'.
+3. Enter invalid data.
+4. Attempt to save changes.</t>
+  </si>
+  <si>
+    <t>1. Log in to the admin panel.
+2. Navigate to 'Shipping Options'.
+3. Update shipping option settings.
+4. Save changes.</t>
+  </si>
+  <si>
+    <t>1. Log in to the admin panel.
+2. Go to 'Shipping Options'.
+3. Select unsupported option.
+4. Attempt to save.</t>
+  </si>
+  <si>
+    <t>1. Log in to the admin panel.
+2. Navigate to 'User Activity Logs'.
+3. Select a user and view logs.</t>
+  </si>
+  <si>
+    <t>Payment gateway settings are updated and saved successfully.</t>
+  </si>
+  <si>
+    <t>System shows an error message indicating invalid data in payment settings.</t>
+  </si>
+  <si>
+    <t>Shipping options are updated and saved successfully across the site.</t>
+  </si>
+  <si>
+    <t>System displays an error message indicating unsupported shipping option.</t>
+  </si>
+  <si>
+    <t>User activity logs display accurately, showing recent actions by the user.</t>
+  </si>
+  <si>
+    <t>Admin has permissions to modify site settings.</t>
+  </si>
+  <si>
+    <t>Admin panel is accessible, and payment settings require valid data.</t>
+  </si>
+  <si>
+    <t>Admin has permissions to modify shipping options.</t>
+  </si>
+  <si>
+    <t>Unsupported shipping option is pre-configured in system.</t>
+  </si>
+  <si>
+    <t>User has recent activities recorded in the logs.</t>
+  </si>
+  <si>
+    <t>Valid payment settings</t>
+  </si>
+  <si>
+    <t>Invalid payment settings</t>
+  </si>
+  <si>
+    <t>Supported shipping option</t>
+  </si>
+  <si>
+    <t>Unsupported shipping option</t>
+  </si>
+  <si>
+    <t>Verify error message when viewing logs for invalid user ID</t>
+  </si>
+  <si>
+    <t>Verify admin can view seller activity logs</t>
+  </si>
+  <si>
+    <t>Verify logs show correct data filtering by date range</t>
+  </si>
+  <si>
+    <t>TC-129</t>
+  </si>
+  <si>
+    <t>TC-130</t>
+  </si>
+  <si>
+    <t>TC-131</t>
+  </si>
+  <si>
+    <t>1. Log in to the admin panel.
+2. Go to 'User Activity Logs'.
+3. Enter invalid user ID.
+4. View logs.</t>
+  </si>
+  <si>
+    <t>1. Log in to the admin panel.
+2. Navigate to 'Seller Activity Logs'.
+3. Select a seller and view logs.</t>
+  </si>
+  <si>
+    <t>1. Log in to the admin panel.
+2. Go to 'Activity Logs'.
+3. Filter logs by specific date range.</t>
+  </si>
+  <si>
+    <t>System displays an error message indicating invalid user ID.</t>
+  </si>
+  <si>
+    <t>Seller activity logs display accurately, showing recent actions by the seller.</t>
+  </si>
+  <si>
+    <t>Logs display correctly, filtered by the selected date range, showing actions within that timeframe.</t>
+  </si>
+  <si>
+    <t>Invalid user ID is available for testing.</t>
+  </si>
+  <si>
+    <t>Seller has recent activities recorded in the logs.</t>
+  </si>
+  <si>
+    <t>Logs contain entries for the selected date range.</t>
+  </si>
+  <si>
+    <t>Invalid user ID</t>
+  </si>
+  <si>
+    <t>Admin Panel</t>
+  </si>
+  <si>
+    <t>TC-132</t>
+  </si>
+  <si>
+    <t>TC-133</t>
+  </si>
+  <si>
+    <t>TC-134</t>
+  </si>
+  <si>
+    <t>TC-135</t>
+  </si>
+  <si>
+    <t>TC-136</t>
+  </si>
+  <si>
+    <t>TC-137</t>
+  </si>
+  <si>
+    <t>TC-138</t>
+  </si>
+  <si>
+    <t>TC-139</t>
+  </si>
+  <si>
+    <t>Verify admin can view order details including status, products, and customer info</t>
+  </si>
+  <si>
+    <t>Verify admin can change order status from 'Processing' to 'Shipped'</t>
+  </si>
+  <si>
+    <t>Verify error when changing order status to 'Shipped' if items are out of stock</t>
+  </si>
+  <si>
+    <t>Verify admin can issue a full refund for an eligible order</t>
+  </si>
+  <si>
+    <t>Verify error message when attempting to issue a refund for an ineligible order</t>
+  </si>
+  <si>
+    <t>Verify admin can cancel an order and notify the customer</t>
+  </si>
+  <si>
+    <t>Verify error when attempting to cancel an already shipped order</t>
+  </si>
+  <si>
+    <t>1. Log in to the admin panel.
+2. Navigate to 'Order Management'.
+3. Select an order to view its details.</t>
+  </si>
+  <si>
+    <t>1. Log in to the admin panel.
+2. Go to 'Order Management'.
+3. Select an order in 'Processing'.
+4. Change status to 'Shipped'.</t>
+  </si>
+  <si>
+    <t>1. Log in to the admin panel.
+2. Navigate to 'Order Management'.
+3. Select an order with out-of-stock items.
+4. Attempt to change status to 'Shipped'.</t>
+  </si>
+  <si>
+    <t>1. Log in to the admin panel.
+2. Navigate to 'Order Management'.
+3. Select an eligible order.
+4. Issue a full refund.</t>
+  </si>
+  <si>
+    <t>1. Log in to the admin panel.
+2. Go to 'Order Management'.
+3. Select an ineligible order.
+4. Attempt to issue refund.</t>
+  </si>
+  <si>
+    <t>1. Log in to the admin panel.
+2. Go to 'Order Management'.
+3. Select an order to cancel.
+4. Confirm cancellation.</t>
+  </si>
+  <si>
+    <t>1. Log in to the admin panel.
+2. Navigate to 'Order Management'.
+3. Select an already shipped order.
+4. Attempt to cancel.</t>
+  </si>
+  <si>
+    <t>Order details, including status, products, and customer info, display accurately.</t>
+  </si>
+  <si>
+    <t>Order status is successfully updated to 'Shipped', and customer is notified.</t>
+  </si>
+  <si>
+    <t>System displays an error indicating items are out of stock, preventing status update.</t>
+  </si>
+  <si>
+    <t>Full refund is processed, and customer receives confirmation.</t>
+  </si>
+  <si>
+    <t>System displays error indicating order is ineligible for a refund.</t>
+  </si>
+  <si>
+    <t>Order is canceled, and a cancellation notification is sent to the customer.</t>
+  </si>
+  <si>
+    <t>System displays error indicating the order has already been shipped and cannot be canceled.</t>
+  </si>
+  <si>
+    <t>Admin has permissions to view orders.</t>
+  </si>
+  <si>
+    <t>Order is in 'Processing' status and stock is available.</t>
+  </si>
+  <si>
+    <t>Order contains out-of-stock items.</t>
+  </si>
+  <si>
+    <t>Order is eligible for refund based on refund policy.</t>
+  </si>
+  <si>
+    <t>Order is ineligible for refund based on policy.</t>
+  </si>
+  <si>
+    <t>Order is in 'Processing' status and can be canceled.</t>
+  </si>
+  <si>
+    <t>Order status is 'Shipped'.</t>
+  </si>
+  <si>
+    <t>Eligible order ID</t>
+  </si>
+  <si>
+    <t>Ineligible order ID</t>
+  </si>
+  <si>
+    <t>Verify admin can view and respond to a customer complaint</t>
+  </si>
+  <si>
+    <t>Verify admin can close a resolved dispute in the customer service section</t>
+  </si>
+  <si>
+    <t>Verify error message when trying to close a dispute without resolution</t>
+  </si>
+  <si>
+    <t>Verify admin can escalate a dispute to a higher authority</t>
+  </si>
+  <si>
+    <t>Verify error when escalating a dispute without required documentation</t>
+  </si>
+  <si>
+    <t>Verify admin can track resolution history for a customer complaint</t>
+  </si>
+  <si>
+    <t>TC-140</t>
+  </si>
+  <si>
+    <t>TC-141</t>
+  </si>
+  <si>
+    <t>TC-142</t>
+  </si>
+  <si>
+    <t>TC-143</t>
+  </si>
+  <si>
+    <t>TC-144</t>
+  </si>
+  <si>
+    <t>1. Log in to the admin panel.
+2. Go to 'Customer Service'.
+3. Select a complaint.
+4. Respond to the customer.</t>
+  </si>
+  <si>
+    <t>1. Log in to the admin panel.
+2. Go to 'Customer Service'.
+3. Select a resolved dispute.
+4. Close dispute.</t>
+  </si>
+  <si>
+    <t>1. Log in to the admin panel.
+2. Go to 'Customer Service'.
+3. Select an unresolved dispute.
+4. Attempt to close.</t>
+  </si>
+  <si>
+    <t>1. Log in to the admin panel.
+2. Navigate to 'Customer Service'.
+3. Select a dispute.
+4. Escalate to higher authority.</t>
+  </si>
+  <si>
+    <t>1. Log in to the admin panel.
+2. Go to 'Customer Service'.
+3. Select a dispute.
+4. Attempt to escalate without required documentation.</t>
+  </si>
+  <si>
+    <t>1. Log in to the admin panel.
+2. Navigate to 'Customer Service'.
+3. Select a customer complaint.
+4. View resolution history.</t>
+  </si>
+  <si>
+    <t>Complaint is displayed, and admin's response is sent to the customer.</t>
+  </si>
+  <si>
+    <t>Dispute is marked as closed, and a closure confirmation is recorded.</t>
+  </si>
+  <si>
+    <t>System displays an error indicating resolution is required before closing the dispute.</t>
+  </si>
+  <si>
+    <t>Dispute is escalated, and escalation record is saved in the system.</t>
+  </si>
+  <si>
+    <t>System displays error indicating missing documentation required for escalation.</t>
+  </si>
+  <si>
+    <t>Complaint resolution history displays accurately, showing all actions taken.</t>
+  </si>
+  <si>
+    <t>Admin has access to customer complaints.</t>
+  </si>
+  <si>
+    <t>Dispute has been resolved previously.</t>
+  </si>
+  <si>
+    <t>Dispute is not resolved.</t>
+  </si>
+  <si>
+    <t>Admin has permissions to escalate disputes.</t>
+  </si>
+  <si>
+    <t>Required documentation is missing for escalation.</t>
+  </si>
+  <si>
+    <t>Complaint has a recorded resolution history.</t>
+  </si>
+  <si>
+    <t>Dispute ID</t>
+  </si>
+  <si>
+    <t>Complaint ID</t>
+  </si>
+  <si>
+    <t>Order Management</t>
+  </si>
+  <si>
+    <t>TC-145</t>
+  </si>
+  <si>
+    <t>TC-146</t>
+  </si>
+  <si>
+    <t>TC-147</t>
+  </si>
+  <si>
+    <t>TC-148</t>
+  </si>
+  <si>
+    <t>TC-149</t>
   </si>
 </sst>
 </file>
@@ -1842,7 +2366,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1903,6 +2427,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1931,7 +2467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1976,26 +2512,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2277,10 +2822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B122" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E129" sqref="E129"/>
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2317,7 +2862,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2340,7 +2885,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
@@ -2370,7 +2915,7 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -2393,7 +2938,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2412,7 +2957,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
@@ -2433,7 +2978,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
@@ -2454,7 +2999,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
@@ -2475,7 +3020,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
@@ -2496,7 +3041,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
@@ -2517,7 +3062,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
@@ -2538,7 +3083,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
@@ -2559,7 +3104,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="7" t="s">
         <v>41</v>
       </c>
@@ -2580,7 +3125,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="7" t="s">
         <v>45</v>
       </c>
@@ -2601,7 +3146,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="7" t="s">
         <v>46</v>
       </c>
@@ -2622,7 +3167,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="18"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="7" t="s">
         <v>49</v>
       </c>
@@ -2643,7 +3188,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="7" t="s">
         <v>50</v>
       </c>
@@ -3904,7 +4449,7 @@
       <c r="G81" s="10"/>
     </row>
     <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="22" t="s">
         <v>364</v>
       </c>
       <c r="B82" s="7" t="s">
@@ -3924,7 +4469,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
+      <c r="A83" s="22"/>
       <c r="B83" s="7" t="s">
         <v>304</v>
       </c>
@@ -3942,7 +4487,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
+      <c r="A84" s="22"/>
       <c r="B84" s="7" t="s">
         <v>305</v>
       </c>
@@ -3960,7 +4505,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="16"/>
+      <c r="A85" s="22"/>
       <c r="B85" s="7" t="s">
         <v>306</v>
       </c>
@@ -3978,7 +4523,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="16"/>
+      <c r="A86" s="22"/>
       <c r="B86" s="7" t="s">
         <v>307</v>
       </c>
@@ -3996,7 +4541,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="16"/>
+      <c r="A87" s="22"/>
       <c r="B87" s="7" t="s">
         <v>308</v>
       </c>
@@ -4014,7 +4559,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A88" s="16"/>
+      <c r="A88" s="22"/>
       <c r="B88" s="7" t="s">
         <v>309</v>
       </c>
@@ -4032,7 +4577,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A89" s="16"/>
+      <c r="A89" s="22"/>
       <c r="B89" s="7" t="s">
         <v>310</v>
       </c>
@@ -4050,7 +4595,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A90" s="16"/>
+      <c r="A90" s="22"/>
       <c r="B90" s="7" t="s">
         <v>343</v>
       </c>
@@ -4068,7 +4613,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A91" s="16"/>
+      <c r="A91" s="22"/>
       <c r="B91" s="7" t="s">
         <v>360</v>
       </c>
@@ -4086,7 +4631,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A92" s="16"/>
+      <c r="A92" s="22"/>
       <c r="B92" s="7" t="s">
         <v>361</v>
       </c>
@@ -4104,7 +4649,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A93" s="16"/>
+      <c r="A93" s="22"/>
       <c r="B93" s="7" t="s">
         <v>362</v>
       </c>
@@ -4122,7 +4667,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="16"/>
+      <c r="A94" s="22"/>
       <c r="B94" s="7" t="s">
         <v>363</v>
       </c>
@@ -4148,7 +4693,7 @@
       <c r="G95" s="10"/>
     </row>
     <row r="96" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="23" t="s">
         <v>365</v>
       </c>
       <c r="B96" s="7" t="s">
@@ -4171,7 +4716,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A97" s="22"/>
+      <c r="A97" s="23"/>
       <c r="B97" s="7" t="s">
         <v>367</v>
       </c>
@@ -4192,7 +4737,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A98" s="22"/>
+      <c r="A98" s="23"/>
       <c r="B98" s="7" t="s">
         <v>368</v>
       </c>
@@ -4210,7 +4755,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A99" s="22"/>
+      <c r="A99" s="23"/>
       <c r="B99" s="7" t="s">
         <v>369</v>
       </c>
@@ -4228,7 +4773,7 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A100" s="22"/>
+      <c r="A100" s="23"/>
       <c r="B100" s="7" t="s">
         <v>370</v>
       </c>
@@ -4246,7 +4791,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A101" s="22"/>
+      <c r="A101" s="23"/>
       <c r="B101" s="15" t="s">
         <v>404</v>
       </c>
@@ -4264,7 +4809,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A102" s="22"/>
+      <c r="A102" s="23"/>
       <c r="B102" s="15" t="s">
         <v>405</v>
       </c>
@@ -4282,7 +4827,7 @@
       </c>
     </row>
     <row r="103" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A103" s="22"/>
+      <c r="A103" s="23"/>
       <c r="B103" s="15" t="s">
         <v>406</v>
       </c>
@@ -4300,7 +4845,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A104" s="22"/>
+      <c r="A104" s="23"/>
       <c r="B104" s="15" t="s">
         <v>407</v>
       </c>
@@ -4318,7 +4863,7 @@
       </c>
     </row>
     <row r="105" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A105" s="22"/>
+      <c r="A105" s="23"/>
       <c r="B105" s="15" t="s">
         <v>411</v>
       </c>
@@ -4336,7 +4881,7 @@
       </c>
     </row>
     <row r="106" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="22"/>
+      <c r="A106" s="23"/>
       <c r="B106" s="15" t="s">
         <v>412</v>
       </c>
@@ -4354,7 +4899,7 @@
       </c>
     </row>
     <row r="107" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A107" s="22"/>
+      <c r="A107" s="23"/>
       <c r="B107" s="15" t="s">
         <v>422</v>
       </c>
@@ -4372,7 +4917,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="22"/>
+      <c r="A108" s="23"/>
       <c r="B108" s="15" t="s">
         <v>423</v>
       </c>
@@ -4393,7 +4938,7 @@
       </c>
     </row>
     <row r="109" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" s="22"/>
+      <c r="A109" s="23"/>
       <c r="B109" s="15" t="s">
         <v>424</v>
       </c>
@@ -4411,7 +4956,7 @@
       </c>
     </row>
     <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="22"/>
+      <c r="A110" s="23"/>
       <c r="B110" s="15" t="s">
         <v>446</v>
       </c>
@@ -4429,7 +4974,7 @@
       </c>
     </row>
     <row r="111" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111" s="22"/>
+      <c r="A111" s="23"/>
       <c r="B111" s="15" t="s">
         <v>447</v>
       </c>
@@ -4453,7 +4998,10 @@
       <c r="E112" s="10"/>
       <c r="G112" s="10"/>
     </row>
-    <row r="113" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A113" s="24" t="s">
+        <v>365</v>
+      </c>
       <c r="B113" s="15" t="s">
         <v>448</v>
       </c>
@@ -4473,7 +5021,8 @@
         <v>453</v>
       </c>
     </row>
-    <row r="114" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A114" s="24"/>
       <c r="B114" s="15" t="s">
         <v>449</v>
       </c>
@@ -4493,7 +5042,8 @@
         <v>454</v>
       </c>
     </row>
-    <row r="115" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A115" s="24"/>
       <c r="B115" s="15" t="s">
         <v>450</v>
       </c>
@@ -4513,7 +5063,8 @@
         <v>455</v>
       </c>
     </row>
-    <row r="116" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A116" s="24"/>
       <c r="B116" s="15" t="s">
         <v>451</v>
       </c>
@@ -4530,7 +5081,8 @@
         <v>456</v>
       </c>
     </row>
-    <row r="117" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A117" s="24"/>
       <c r="B117" s="15" t="s">
         <v>452</v>
       </c>
@@ -4550,7 +5102,8 @@
         <v>484</v>
       </c>
     </row>
-    <row r="118" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A118" s="24"/>
       <c r="B118" s="15" t="s">
         <v>471</v>
       </c>
@@ -4567,7 +5120,8 @@
         <v>485</v>
       </c>
     </row>
-    <row r="119" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A119" s="24"/>
       <c r="B119" s="15" t="s">
         <v>472</v>
       </c>
@@ -4584,7 +5138,8 @@
         <v>486</v>
       </c>
     </row>
-    <row r="120" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A120" s="24"/>
       <c r="B120" s="15" t="s">
         <v>473</v>
       </c>
@@ -4601,7 +5156,8 @@
         <v>487</v>
       </c>
     </row>
-    <row r="121" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A121" s="24"/>
       <c r="B121" s="15" t="s">
         <v>474</v>
       </c>
@@ -4618,7 +5174,8 @@
         <v>503</v>
       </c>
     </row>
-    <row r="122" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A122" s="24"/>
       <c r="B122" s="15" t="s">
         <v>475</v>
       </c>
@@ -4635,7 +5192,8 @@
         <v>504</v>
       </c>
     </row>
-    <row r="123" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A123" s="24"/>
       <c r="B123" s="15" t="s">
         <v>497</v>
       </c>
@@ -4655,7 +5213,8 @@
         <v>505</v>
       </c>
     </row>
-    <row r="124" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A124" s="24"/>
       <c r="B124" s="15" t="s">
         <v>498</v>
       </c>
@@ -4672,7 +5231,8 @@
         <v>506</v>
       </c>
     </row>
-    <row r="125" spans="2:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A125" s="24"/>
       <c r="B125" s="15" t="s">
         <v>511</v>
       </c>
@@ -4689,7 +5249,8 @@
         <v>515</v>
       </c>
     </row>
-    <row r="126" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A126" s="24"/>
       <c r="B126" s="15" t="s">
         <v>512</v>
       </c>
@@ -4709,9 +5270,577 @@
         <v>519</v>
       </c>
     </row>
+    <row r="127" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B127" s="9" t="s">
+        <v>521</v>
+      </c>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="G127" s="10"/>
+    </row>
+    <row r="128" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A128" s="25" t="s">
+        <v>595</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A129" s="25"/>
+      <c r="B129" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A130" s="25"/>
+      <c r="B130" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A131" s="25"/>
+      <c r="B131" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A132" s="25"/>
+      <c r="B132" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A133" s="25"/>
+      <c r="B133" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A134" s="25"/>
+      <c r="B134" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A135" s="25"/>
+      <c r="B135" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A136" s="25"/>
+      <c r="B136" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A137" s="25"/>
+      <c r="B137" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A138" s="25"/>
+      <c r="B138" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A139" s="25"/>
+      <c r="B139" s="15" t="s">
+        <v>583</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A140" s="25"/>
+      <c r="B140" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="9"/>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="G141" s="10"/>
+    </row>
+    <row r="142" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A142" s="18" t="s">
+        <v>665</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A143" s="18"/>
+      <c r="B143" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A144" s="18"/>
+      <c r="B144" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A145" s="18"/>
+      <c r="B145" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A146" s="18"/>
+      <c r="B146" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A147" s="18"/>
+      <c r="B147" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A148" s="18"/>
+      <c r="B148" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A149" s="18"/>
+      <c r="B149" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A150" s="18"/>
+      <c r="B150" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A151" s="18"/>
+      <c r="B151" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A152" s="18"/>
+      <c r="B152" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A153" s="18"/>
+      <c r="B153" s="15" t="s">
+        <v>643</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A154" s="18"/>
+      <c r="B154" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B155" s="9"/>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="G155" s="10"/>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B156" s="7" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B157" s="15" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B158" s="15" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B159" s="15" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B160" s="15" t="s">
+        <v>670</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="A96:A111"/>
+    <mergeCell ref="A113:A126"/>
+    <mergeCell ref="A128:A140"/>
+    <mergeCell ref="A142:A154"/>
     <mergeCell ref="A82:A94"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A18"/>

--- a/TestCases Daraz.pk.xlsx
+++ b/TestCases Daraz.pk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SQA\SMIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E10C22-A1BC-4ABF-8762-7CCC41D85D03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDD4534-5460-44B1-B06B-B1FE4A7D617C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="799">
   <si>
     <t>Process/Feature</t>
   </si>
@@ -2343,6 +2343,452 @@
   </si>
   <si>
     <t>TC-149</t>
+  </si>
+  <si>
+    <t>Verify that a customer can rate a product on a 5-star scale</t>
+  </si>
+  <si>
+    <t>Customer has purchased the product.</t>
+  </si>
+  <si>
+    <t>Rating is successfully submitted and reflects in the product's average rating.</t>
+  </si>
+  <si>
+    <t>Verify error when submitting a rating without selecting stars</t>
+  </si>
+  <si>
+    <t>Verify that a customer can write a detailed review with text and images</t>
+  </si>
+  <si>
+    <t>Verify error when attempting to submit a review without mandatory fields</t>
+  </si>
+  <si>
+    <t>Verify that a customer can upvote an existing review</t>
+  </si>
+  <si>
+    <t>Verify error when attempting to upvote the same review multiple times</t>
+  </si>
+  <si>
+    <t>Verify that a customer can report an inappropriate review</t>
+  </si>
+  <si>
+    <t>Verify error message when reporting a review without selecting a reason</t>
+  </si>
+  <si>
+    <t>TC-150</t>
+  </si>
+  <si>
+    <t>TC-151</t>
+  </si>
+  <si>
+    <t>TC-152</t>
+  </si>
+  <si>
+    <t>Feedback Module</t>
+  </si>
+  <si>
+    <t>Customer has purchased the product and has images to upload.</t>
+  </si>
+  <si>
+    <t>Reviews are available under the product.</t>
+  </si>
+  <si>
+    <t>The selected review has already been upvoted by the user.</t>
+  </si>
+  <si>
+    <t>Inappropriate review exists under the product.</t>
+  </si>
+  <si>
+    <t>Review text, Image files</t>
+  </si>
+  <si>
+    <t>Report reason</t>
+  </si>
+  <si>
+    <t>1. Log in as a customer.
+2. Go to a purchased product.
+3. Select a rating on the 5-star scale.
+4. Submit rating.</t>
+  </si>
+  <si>
+    <t>System shows an error stating that a rating must be selected before submission.</t>
+  </si>
+  <si>
+    <t>1. Log in as a customer.
+2. Navigate to a purchased product.
+3. Attempt to submit rating without selecting stars.</t>
+  </si>
+  <si>
+    <t>1. Log in as a customer.
+2. Go to a purchased product.
+3. Write a review with text and attach images.
+4. Submit review.</t>
+  </si>
+  <si>
+    <t>Review with text and images is successfully submitted and displays under the product.</t>
+  </si>
+  <si>
+    <t>System displays an error indicating required fields are missing for the review.</t>
+  </si>
+  <si>
+    <t>The review's upvote count increases by one, indicating the user's upvote.</t>
+  </si>
+  <si>
+    <t>1. Log in as a customer.
+2. Navigate to the product review section.
+3. Select a review and upvote it.</t>
+  </si>
+  <si>
+    <t>1. Log in as a customer.
+2. Navigate to a purchased product.
+3. Try submitting review without filling required field.</t>
+  </si>
+  <si>
+    <t>1. Log in as a customer.
+2. Navigate to the product review section.
+3. Select a review already upvoted by the user.
+4. Try to upvote again.</t>
+  </si>
+  <si>
+    <t>1. Log in as a customer.
+2. Go to the product review section.
+3. Select an inappropriate review and report it.</t>
+  </si>
+  <si>
+    <t>Review is reported successfully, and the customer receives an acknowledgment.</t>
+  </si>
+  <si>
+    <t>System shows an error message preventing multiple upvotes from the same user.</t>
+  </si>
+  <si>
+    <t>1. Log in as a customer.
+2. Navigate to the product review section.
+3. Try reporting a review without selecting a reason.</t>
+  </si>
+  <si>
+    <t>System displays an error indicating a reason is required to report the review.</t>
+  </si>
+  <si>
+    <t>TC-153</t>
+  </si>
+  <si>
+    <t>TC-154</t>
+  </si>
+  <si>
+    <t>TC-155</t>
+  </si>
+  <si>
+    <t>Verify that a user can add a product to the wishlist with a single click</t>
+  </si>
+  <si>
+    <t>Verify that a user cannot add a product to the wishlist if not logged in</t>
+  </si>
+  <si>
+    <t>Verify that a user can share their wishlist with friends or family</t>
+  </si>
+  <si>
+    <t>User is logged in and on a product page.</t>
+  </si>
+  <si>
+    <t>User is not logged in.</t>
+  </si>
+  <si>
+    <t>User is logged in and has products in their wishlist.</t>
+  </si>
+  <si>
+    <t>1. Log in as a user.
+2. Navigate to a product page.
+3. Click 'Add to Wishlist'.</t>
+  </si>
+  <si>
+    <t>1. Navigate to a product page.
+2. Click 'Add to Wishlist'.</t>
+  </si>
+  <si>
+    <t>System shows an error stating that the user must be logged in to add items to the wishlist.</t>
+  </si>
+  <si>
+    <t>Product is added to the wishlist successfully.</t>
+  </si>
+  <si>
+    <t>1. Log in as a user.
+2. Navigate to 'My Wishlist'.
+3. Click 'Share Wishlist'.
+4. Enter email addresses and send.</t>
+  </si>
+  <si>
+    <t>Wishlist is shared successfully with the provided email addresses.</t>
+  </si>
+  <si>
+    <t>Email address of friends/family</t>
+  </si>
+  <si>
+    <t>Verify that a user cannot share the wishlist if it is empty</t>
+  </si>
+  <si>
+    <t>Verify that a user can move items from the wishlist to the cart</t>
+  </si>
+  <si>
+    <t>Verify that a user cannot move items to the cart if the item is out of stock</t>
+  </si>
+  <si>
+    <t>User is logged in and has an empty wishlist.</t>
+  </si>
+  <si>
+    <t>User is logged in and has items in their wishlist.</t>
+  </si>
+  <si>
+    <t>User is logged in and the item is out of stock.</t>
+  </si>
+  <si>
+    <t>1. Log in as a user.
+2. Navigate to 'My Wishlist'.
+3. Attempt to share the empty wishlist.</t>
+  </si>
+  <si>
+    <t>1. Log in as a user.
+2. Navigate to 'My Wishlist'.
+3. Select an item and click 'Move to Cart'.</t>
+  </si>
+  <si>
+    <t>Item is successfully moved to the cart.</t>
+  </si>
+  <si>
+    <t>System shows an error stating that the wishlist is empty and cannot be shared.</t>
+  </si>
+  <si>
+    <t>1. Log in as a user.
+2. Navigate to 'My Wishlist'.
+3. Attempt to move an out-of-stock item to the cart.</t>
+  </si>
+  <si>
+    <t>System shows an error stating that the item is out of stock and cannot be moved to the cart.</t>
+  </si>
+  <si>
+    <t>TC-156</t>
+  </si>
+  <si>
+    <t>TC-157</t>
+  </si>
+  <si>
+    <t>TC-158</t>
+  </si>
+  <si>
+    <t>Wishlist Module</t>
+  </si>
+  <si>
+    <t>TC-159</t>
+  </si>
+  <si>
+    <t>TC-160</t>
+  </si>
+  <si>
+    <t>TC-161</t>
+  </si>
+  <si>
+    <t>TC-162</t>
+  </si>
+  <si>
+    <t>TC-163</t>
+  </si>
+  <si>
+    <t>TC-164</t>
+  </si>
+  <si>
+    <t>Verify that a discount code can be applied during checkout</t>
+  </si>
+  <si>
+    <t>Verify that an invalid discount code cannot be applied</t>
+  </si>
+  <si>
+    <t>User is logged in and has items in the cart.</t>
+  </si>
+  <si>
+    <t>Valid discount code</t>
+  </si>
+  <si>
+    <t>Invalid discount code</t>
+  </si>
+  <si>
+    <t>1. Log in as a user.
+2. Add items to the cart.
+3. Enter valid discount code during checkout.
+4. Submit the order.</t>
+  </si>
+  <si>
+    <t>1. Log in as a user.
+2. Add items to the cart.
+3. Enter invalid discount code during checkout.
+4. Submit the order.</t>
+  </si>
+  <si>
+    <t>Discount is successfully applied, and the final price is updated.</t>
+  </si>
+  <si>
+    <t>System shows an error indicating that the discount code is invalid.</t>
+  </si>
+  <si>
+    <t>Verify that time-limited offers can be applied before the expiry time</t>
+  </si>
+  <si>
+    <t>Verify that time-limited offers cannot be applied after the expiry time</t>
+  </si>
+  <si>
+    <t>Valid time-limited offer</t>
+  </si>
+  <si>
+    <t>Expired time-limited offer</t>
+  </si>
+  <si>
+    <t>1. Log in as a user.
+2. Add items to the cart.
+3. Enter valid time-limited offer code during checkout.
+4. Submit the order.</t>
+  </si>
+  <si>
+    <t>1. Log in as a user.
+2. Add items to the cart.
+3. Enter expired time-limited offer code during checkout.
+4. Submit the order.</t>
+  </si>
+  <si>
+    <t>System shows an error indicating that the time-limited offer has expired.</t>
+  </si>
+  <si>
+    <t>Discount is successfully applied before expiry, and final price is updated.</t>
+  </si>
+  <si>
+    <t>Verify that discounted prices are displayed correctly on product pages</t>
+  </si>
+  <si>
+    <t>User is logged in and viewing a product page.</t>
+  </si>
+  <si>
+    <t>1. Log in as a user.
+2. Navigate to a product page with a discount.
+3. Verify the displayed price.</t>
+  </si>
+  <si>
+    <t>Discounted price is displayed correctly on the product page.</t>
+  </si>
+  <si>
+    <t>Cart summary shows the updated prices reflecting the promotional offers.</t>
+  </si>
+  <si>
+    <t>1. Log in as a user.
+2. Apply a promotional offer in the cart.
+3. Check the cart summary for updated prices.</t>
+  </si>
+  <si>
+    <t>User is logged in and has applied a promotional offer.</t>
+  </si>
+  <si>
+    <t>Verify that promotional offers are updated in the cart summary</t>
+  </si>
+  <si>
+    <t>TC-165</t>
+  </si>
+  <si>
+    <t>TC-166</t>
+  </si>
+  <si>
+    <t>TC-167</t>
+  </si>
+  <si>
+    <t>TC-168</t>
+  </si>
+  <si>
+    <t>TC-169</t>
+  </si>
+  <si>
+    <t>TC-170</t>
+  </si>
+  <si>
+    <t>Product Comparison</t>
+  </si>
+  <si>
+    <t>Verify that a user can add products to the comparison list</t>
+  </si>
+  <si>
+    <t>1. Log in as a user.
+2. Navigate to a product page.
+3. Click 'Add to Comparison List'.</t>
+  </si>
+  <si>
+    <t>Product is successfully added to the comparison list.</t>
+  </si>
+  <si>
+    <t>Verify that a user can view differences in features of compared products</t>
+  </si>
+  <si>
+    <t>Verify that a user cannot add more than the maximum allowed products to the comparison list</t>
+  </si>
+  <si>
+    <t>User is logged in and has reached the maximum number of products allowed for comparison.</t>
+  </si>
+  <si>
+    <t>User has added products to the comparison list.</t>
+  </si>
+  <si>
+    <t>Maximum allowed products</t>
+  </si>
+  <si>
+    <t>1. Log in as a user.
+2. Navigate to multiple product pages.
+3. Click 'Add to Comparison List' for each product until max limit.</t>
+  </si>
+  <si>
+    <t>1. Log in as a user.
+2. Navigate to 'Comparison List'.
+3. Select the products to compare.
+4. View differences in features.</t>
+  </si>
+  <si>
+    <t>Differences in features are displayed side by side.</t>
+  </si>
+  <si>
+    <t>System shows an error indicating that the maximum number of products for comparison has been reached.</t>
+  </si>
+  <si>
+    <t>Verify that a user can view differences in prices of compared products</t>
+  </si>
+  <si>
+    <t>Verify that a user can view differences in reviews of compared products</t>
+  </si>
+  <si>
+    <t>1. Log in as a user.
+2. Navigate to 'Comparison List'.
+3. Select the products to compare.
+4. View differences in prices.</t>
+  </si>
+  <si>
+    <t>1. Log in as a user.
+2. Navigate to 'Comparison List'.
+3. Select the products to compare.
+4. View differences in reviews.</t>
+  </si>
+  <si>
+    <t>Differences in reviews are displayed side by side.</t>
+  </si>
+  <si>
+    <t>Differences in prices are displayed side by side.</t>
+  </si>
+  <si>
+    <t>System shows an error message indicating that the products cannot be compared.</t>
+  </si>
+  <si>
+    <t>1. Log in as a user.
+2. Select incompatible products.
+3. Attempt to add them to the comparison list.</t>
+  </si>
+  <si>
+    <t>User is logged in and selects incompatible products.</t>
+  </si>
+  <si>
+    <t>Incompatible product IDs</t>
+  </si>
+  <si>
+    <t>Verify that a user receives an error message when trying to compare products that are not compatible</t>
   </si>
 </sst>
 </file>
@@ -2366,7 +2812,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2439,6 +2885,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -2467,7 +2919,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2512,13 +2964,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2530,17 +2991,18 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2822,10 +3284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164"/>
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C184" sqref="C184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2862,7 +3324,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="20" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -2885,7 +3347,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="20"/>
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
@@ -2915,7 +3377,7 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -2938,7 +3400,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
@@ -2957,7 +3419,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
@@ -2978,7 +3440,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
@@ -2999,7 +3461,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
@@ -3020,7 +3482,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
@@ -3041,7 +3503,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="7" t="s">
         <v>15</v>
       </c>
@@ -3062,7 +3524,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="7" t="s">
         <v>16</v>
       </c>
@@ -3083,7 +3545,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
@@ -3104,7 +3566,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="7" t="s">
         <v>41</v>
       </c>
@@ -3125,7 +3587,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="7" t="s">
         <v>45</v>
       </c>
@@ -3146,7 +3608,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="7" t="s">
         <v>46</v>
       </c>
@@ -3167,7 +3629,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="7" t="s">
         <v>49</v>
       </c>
@@ -3188,7 +3650,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="7" t="s">
         <v>50</v>
       </c>
@@ -3218,7 +3680,7 @@
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="22" t="s">
         <v>74</v>
       </c>
       <c r="B20" s="7" t="s">
@@ -3238,7 +3700,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="7" t="s">
         <v>76</v>
       </c>
@@ -3259,7 +3721,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="7" t="s">
         <v>77</v>
       </c>
@@ -3280,7 +3742,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="7" t="s">
         <v>78</v>
       </c>
@@ -3301,7 +3763,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="7" t="s">
         <v>79</v>
       </c>
@@ -3322,7 +3784,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="22"/>
       <c r="B25" s="7" t="s">
         <v>80</v>
       </c>
@@ -3343,7 +3805,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="7" t="s">
         <v>96</v>
       </c>
@@ -3364,7 +3826,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="22"/>
       <c r="B27" s="7" t="s">
         <v>99</v>
       </c>
@@ -3385,7 +3847,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="A28" s="22"/>
       <c r="B28" s="7" t="s">
         <v>112</v>
       </c>
@@ -3406,7 +3868,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
+      <c r="A29" s="22"/>
       <c r="B29" s="7" t="s">
         <v>113</v>
       </c>
@@ -3427,7 +3889,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
+      <c r="A30" s="22"/>
       <c r="B30" s="7" t="s">
         <v>114</v>
       </c>
@@ -3448,7 +3910,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="22"/>
       <c r="B31" s="7" t="s">
         <v>115</v>
       </c>
@@ -3469,7 +3931,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="22"/>
       <c r="B32" s="7" t="s">
         <v>120</v>
       </c>
@@ -3490,7 +3952,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
+      <c r="A33" s="22"/>
       <c r="B33" s="7" t="s">
         <v>121</v>
       </c>
@@ -3511,7 +3973,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
+      <c r="A34" s="22"/>
       <c r="B34" s="7" t="s">
         <v>122</v>
       </c>
@@ -3532,7 +3994,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
+      <c r="A35" s="22"/>
       <c r="B35" s="7" t="s">
         <v>123</v>
       </c>
@@ -3553,7 +4015,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
+      <c r="A36" s="22"/>
       <c r="B36" s="7" t="s">
         <v>124</v>
       </c>
@@ -3574,7 +4036,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
+      <c r="A37" s="22"/>
       <c r="B37" s="7" t="s">
         <v>125</v>
       </c>
@@ -3595,7 +4057,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
+      <c r="A38" s="22"/>
       <c r="B38" s="7" t="s">
         <v>126</v>
       </c>
@@ -3616,7 +4078,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
+      <c r="A39" s="22"/>
       <c r="B39" s="7" t="s">
         <v>131</v>
       </c>
@@ -3637,7 +4099,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
+      <c r="A40" s="22"/>
       <c r="B40" s="7" t="s">
         <v>134</v>
       </c>
@@ -3658,7 +4120,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
+      <c r="A41" s="22"/>
       <c r="B41" s="7" t="s">
         <v>135</v>
       </c>
@@ -3679,7 +4141,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A42" s="19"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="7" t="s">
         <v>144</v>
       </c>
@@ -3700,7 +4162,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A43" s="19"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="7" t="s">
         <v>145</v>
       </c>
@@ -3721,7 +4183,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
+      <c r="A44" s="22"/>
       <c r="B44" s="7" t="s">
         <v>151</v>
       </c>
@@ -3742,7 +4204,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
+      <c r="A45" s="22"/>
       <c r="B45" s="7" t="s">
         <v>152</v>
       </c>
@@ -3763,7 +4225,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
+      <c r="A46" s="22"/>
       <c r="B46" s="7" t="s">
         <v>153</v>
       </c>
@@ -3784,7 +4246,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="7" t="s">
         <v>158</v>
       </c>
@@ -3805,7 +4267,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
+      <c r="A48" s="22"/>
       <c r="B48" s="7" t="s">
         <v>159</v>
       </c>
@@ -3826,7 +4288,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
+      <c r="A49" s="22"/>
       <c r="B49" s="7" t="s">
         <v>167</v>
       </c>
@@ -3847,7 +4309,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
+      <c r="A50" s="22"/>
       <c r="B50" s="7" t="s">
         <v>168</v>
       </c>
@@ -3868,7 +4330,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="7" t="s">
         <v>173</v>
       </c>
@@ -3889,7 +4351,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="7" t="s">
         <v>174</v>
       </c>
@@ -3919,7 +4381,7 @@
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="23" t="s">
         <v>187</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -3939,7 +4401,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A55" s="20"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="7" t="s">
         <v>181</v>
       </c>
@@ -3957,7 +4419,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="20"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="7" t="s">
         <v>182</v>
       </c>
@@ -3975,7 +4437,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="20"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="7" t="s">
         <v>183</v>
       </c>
@@ -3993,7 +4455,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="20"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="7" t="s">
         <v>184</v>
       </c>
@@ -4011,7 +4473,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="20"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="7" t="s">
         <v>185</v>
       </c>
@@ -4029,7 +4491,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="20"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="7" t="s">
         <v>186</v>
       </c>
@@ -4047,7 +4509,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A61" s="20"/>
+      <c r="A61" s="23"/>
       <c r="B61" s="7" t="s">
         <v>207</v>
       </c>
@@ -4065,7 +4527,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="20"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="7" t="s">
         <v>208</v>
       </c>
@@ -4086,7 +4548,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="20"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="7" t="s">
         <v>209</v>
       </c>
@@ -4116,7 +4578,7 @@
       <c r="G64" s="10"/>
     </row>
     <row r="65" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="24" t="s">
         <v>298</v>
       </c>
       <c r="B65" s="7" t="s">
@@ -4139,7 +4601,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
+      <c r="A66" s="24"/>
       <c r="B66" s="7" t="s">
         <v>219</v>
       </c>
@@ -4160,7 +4622,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
+      <c r="A67" s="24"/>
       <c r="B67" s="7" t="s">
         <v>220</v>
       </c>
@@ -4181,7 +4643,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="7" t="s">
         <v>232</v>
       </c>
@@ -4202,7 +4664,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
+      <c r="A69" s="24"/>
       <c r="B69" s="7" t="s">
         <v>233</v>
       </c>
@@ -4223,7 +4685,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
+      <c r="A70" s="24"/>
       <c r="B70" s="7" t="s">
         <v>240</v>
       </c>
@@ -4244,7 +4706,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="21"/>
+      <c r="A71" s="24"/>
       <c r="B71" s="7" t="s">
         <v>241</v>
       </c>
@@ -4265,7 +4727,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
+      <c r="A72" s="24"/>
       <c r="B72" s="7" t="s">
         <v>259</v>
       </c>
@@ -4286,7 +4748,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
+      <c r="A73" s="24"/>
       <c r="B73" s="7" t="s">
         <v>260</v>
       </c>
@@ -4307,7 +4769,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
+      <c r="A74" s="24"/>
       <c r="B74" s="7" t="s">
         <v>261</v>
       </c>
@@ -4328,7 +4790,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
+      <c r="A75" s="24"/>
       <c r="B75" s="7" t="s">
         <v>262</v>
       </c>
@@ -4349,7 +4811,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
+      <c r="A76" s="24"/>
       <c r="B76" s="7" t="s">
         <v>263</v>
       </c>
@@ -4367,7 +4829,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A77" s="21"/>
+      <c r="A77" s="24"/>
       <c r="B77" s="7" t="s">
         <v>264</v>
       </c>
@@ -4388,7 +4850,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
+      <c r="A78" s="24"/>
       <c r="B78" s="7" t="s">
         <v>286</v>
       </c>
@@ -4406,7 +4868,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
+      <c r="A79" s="24"/>
       <c r="B79" s="7" t="s">
         <v>287</v>
       </c>
@@ -4424,7 +4886,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="21"/>
+      <c r="A80" s="24"/>
       <c r="B80" s="7" t="s">
         <v>288</v>
       </c>
@@ -4441,1412 +4903,1912 @@
         <v>295</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="9"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="G81" s="10"/>
-    </row>
-    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="22" t="s">
+    <row r="81" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="B86" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="9"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="G87" s="10"/>
+    </row>
+    <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A88" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="B82" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="22"/>
-      <c r="B83" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="22"/>
-      <c r="B84" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="22"/>
-      <c r="B85" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="22"/>
-      <c r="B86" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A87" s="22"/>
-      <c r="B87" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A88" s="22"/>
       <c r="B88" s="7" t="s">
         <v>309</v>
       </c>
       <c r="C88" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="19"/>
+      <c r="B89" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="19"/>
+      <c r="B90" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="19"/>
+      <c r="B91" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A92" s="19"/>
+      <c r="B92" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="19"/>
+      <c r="B93" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" s="19"/>
+      <c r="B94" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F94" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="G94" s="2" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A89" s="22"/>
-      <c r="B89" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C89" s="2" t="s">
+    <row r="95" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A95" s="19"/>
+      <c r="B95" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="F95" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="G95" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A90" s="22"/>
-      <c r="B90" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="C90" s="2" t="s">
+    <row r="96" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A96" s="19"/>
+      <c r="B96" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="F96" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="G96" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A91" s="22"/>
-      <c r="B91" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="C91" s="2" t="s">
+    <row r="97" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A97" s="19"/>
+      <c r="B97" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="F97" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="G97" s="2" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A92" s="22"/>
-      <c r="B92" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="C92" s="2" t="s">
+    <row r="98" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98" s="19"/>
+      <c r="B98" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="G98" s="2" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A93" s="22"/>
-      <c r="B93" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="C93" s="2" t="s">
+    <row r="99" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A99" s="19"/>
+      <c r="B99" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="F99" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="G99" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="22"/>
-      <c r="B94" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="C94" s="2" t="s">
+    <row r="100" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A100" s="19"/>
+      <c r="B100" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="F100" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="G100" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="G95" s="10"/>
-    </row>
-    <row r="96" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A96" s="23" t="s">
+    <row r="101" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="14"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="G101" s="10"/>
+    </row>
+    <row r="102" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A102" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="B96" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="C96" s="2" t="s">
+      <c r="B102" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D102" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E102" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F96" s="2" t="s">
+      <c r="F102" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="G96" s="2" t="s">
+      <c r="G102" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A97" s="23"/>
-      <c r="B97" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A98" s="23"/>
-      <c r="B98" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A99" s="23"/>
-      <c r="B99" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A100" s="23"/>
-      <c r="B100" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A101" s="23"/>
-      <c r="B101" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A102" s="23"/>
-      <c r="B102" s="15" t="s">
-        <v>405</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A103" s="23"/>
+    <row r="103" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A103" s="16"/>
       <c r="B103" s="15" t="s">
         <v>406</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>401</v>
+        <v>383</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A104" s="23"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A104" s="16"/>
       <c r="B104" s="15" t="s">
         <v>407</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A105" s="23"/>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A105" s="16"/>
       <c r="B105" s="15" t="s">
         <v>411</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>409</v>
+        <v>373</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A106" s="23"/>
+      <c r="A106" s="16"/>
       <c r="B106" s="15" t="s">
         <v>412</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A107" s="23"/>
+      <c r="A107" s="16"/>
       <c r="B107" s="15" t="s">
         <v>422</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>430</v>
+        <v>398</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A108" s="23"/>
+      <c r="A108" s="16"/>
       <c r="B108" s="15" t="s">
         <v>423</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>434</v>
+        <v>402</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>429</v>
+        <v>396</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A109" s="23"/>
+      <c r="A109" s="16"/>
       <c r="B109" s="15" t="s">
         <v>424</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>442</v>
+        <v>401</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>437</v>
+        <v>397</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="23"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A110" s="16"/>
       <c r="B110" s="15" t="s">
         <v>446</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>438</v>
+        <v>413</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A111" s="23"/>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A111" s="16"/>
       <c r="B111" s="15" t="s">
         <v>447</v>
       </c>
       <c r="C111" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A112" s="16"/>
+      <c r="B112" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A113" s="16"/>
+      <c r="B113" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A114" s="16"/>
+      <c r="B114" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A115" s="16"/>
+      <c r="B115" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A116" s="16"/>
+      <c r="B116" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A117" s="16"/>
+      <c r="B117" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="F117" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="G117" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="9"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="G112" s="10"/>
-    </row>
-    <row r="113" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A113" s="24" t="s">
+    <row r="118" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="9"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="G118" s="10"/>
+    </row>
+    <row r="119" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A119" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="B113" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A114" s="24"/>
-      <c r="B114" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A115" s="24"/>
-      <c r="B115" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A116" s="24"/>
-      <c r="B116" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A117" s="24"/>
-      <c r="B117" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A118" s="24"/>
-      <c r="B118" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A119" s="24"/>
       <c r="B119" s="15" t="s">
         <v>472</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>478</v>
+        <v>457</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>490</v>
+        <v>465</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>469</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>482</v>
+        <v>461</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A120" s="24"/>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A120" s="17"/>
       <c r="B120" s="15" t="s">
         <v>473</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>491</v>
+        <v>466</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>469</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>483</v>
+        <v>462</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>487</v>
+        <v>454</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A121" s="24"/>
+      <c r="A121" s="17"/>
       <c r="B121" s="15" t="s">
         <v>474</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>507</v>
+        <v>467</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>470</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>499</v>
+        <v>463</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A122" s="24"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A122" s="17"/>
       <c r="B122" s="15" t="s">
         <v>475</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>508</v>
+        <v>468</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>500</v>
+        <v>464</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A123" s="24"/>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A123" s="17"/>
       <c r="B123" s="15" t="s">
         <v>497</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>501</v>
+        <v>480</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A124" s="24"/>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A124" s="17"/>
       <c r="B124" s="15" t="s">
         <v>498</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>502</v>
+        <v>481</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A125" s="24"/>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A125" s="17"/>
       <c r="B125" s="15" t="s">
         <v>511</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>516</v>
+        <v>490</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>514</v>
+        <v>482</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>515</v>
+        <v>486</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A126" s="24"/>
+      <c r="A126" s="17"/>
       <c r="B126" s="15" t="s">
         <v>512</v>
       </c>
       <c r="C126" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A127" s="17"/>
+      <c r="B127" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A128" s="17"/>
+      <c r="B128" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A129" s="17"/>
+      <c r="B129" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A130" s="17"/>
+      <c r="B130" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A131" s="17"/>
+      <c r="B131" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A132" s="17"/>
+      <c r="B132" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D132" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E132" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="F126" s="2" t="s">
+      <c r="F132" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="G132" s="2" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="9" t="s">
+    <row r="133" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10"/>
-      <c r="G127" s="10"/>
-    </row>
-    <row r="128" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A128" s="25" t="s">
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="G133" s="10"/>
+    </row>
+    <row r="134" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A134" s="18" t="s">
         <v>595</v>
       </c>
-      <c r="B128" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="F128" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="G128" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A129" s="25"/>
-      <c r="B129" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="F129" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="G129" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A130" s="25"/>
-      <c r="B130" s="15" t="s">
-        <v>523</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="G130" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A131" s="25"/>
-      <c r="B131" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="G131" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A132" s="25"/>
-      <c r="B132" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A133" s="25"/>
-      <c r="B133" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A134" s="25"/>
       <c r="B134" s="15" t="s">
         <v>551</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>571</v>
+        <v>539</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>576</v>
+        <v>544</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>561</v>
+        <v>529</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A135" s="25"/>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A135" s="18"/>
       <c r="B135" s="15" t="s">
         <v>552</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>555</v>
+        <v>525</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="E135" s="2" t="s">
-        <v>577</v>
+        <v>540</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>562</v>
+        <v>530</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>567</v>
+        <v>535</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A136" s="25"/>
+      <c r="A136" s="18"/>
       <c r="B136" s="15" t="s">
         <v>558</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>573</v>
+        <v>541</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>578</v>
+        <v>545</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>563</v>
+        <v>531</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A137" s="25"/>
+        <v>536</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A137" s="18"/>
       <c r="B137" s="15" t="s">
         <v>559</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>574</v>
+        <v>542</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>546</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>564</v>
+        <v>532</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>569</v>
+        <v>537</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A138" s="25"/>
+      <c r="A138" s="18"/>
       <c r="B138" s="15" t="s">
         <v>582</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>579</v>
+        <v>528</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>591</v>
+        <v>543</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>594</v>
+        <v>547</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>585</v>
+        <v>533</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A139" s="25"/>
+        <v>538</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A139" s="18"/>
       <c r="B139" s="15" t="s">
         <v>583</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>580</v>
+        <v>553</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>592</v>
+        <v>570</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>575</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A140" s="25"/>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A140" s="18"/>
       <c r="B140" s="15" t="s">
         <v>584</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>581</v>
+        <v>554</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>593</v>
+        <v>571</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>469</v>
+        <v>576</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="9"/>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="10"/>
-      <c r="G141" s="10"/>
-    </row>
-    <row r="142" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A142" s="18" t="s">
-        <v>665</v>
-      </c>
-      <c r="B142" s="7" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A141" s="18"/>
+      <c r="B141" s="15" t="s">
         <v>596</v>
       </c>
+      <c r="C141" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A142" s="18"/>
+      <c r="B142" s="15" t="s">
+        <v>597</v>
+      </c>
       <c r="C142" s="2" t="s">
-        <v>604</v>
+        <v>556</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>625</v>
+        <v>573</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>578</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>611</v>
+        <v>563</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A143" s="18"/>
       <c r="B143" s="15" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>605</v>
+        <v>557</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>626</v>
+        <v>574</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>612</v>
+        <v>564</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>619</v>
+        <v>569</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A144" s="18"/>
       <c r="B144" s="15" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>606</v>
+        <v>579</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>627</v>
+        <v>591</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>594</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>613</v>
+        <v>585</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A145" s="18"/>
       <c r="B145" s="15" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>607</v>
+        <v>580</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>632</v>
+        <v>592</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>614</v>
+        <v>586</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A146" s="18"/>
       <c r="B146" s="15" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>608</v>
+        <v>581</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>629</v>
+        <v>593</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>633</v>
+        <v>469</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>615</v>
+        <v>587</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A147" s="18"/>
-      <c r="B147" s="15" t="s">
-        <v>601</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="F147" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="G147" s="2" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A148" s="18"/>
-      <c r="B148" s="15" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="9"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="G147" s="10"/>
+    </row>
+    <row r="148" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="B148" s="7" t="s">
         <v>602</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A149" s="18"/>
+      <c r="A149" s="16"/>
       <c r="B149" s="15" t="s">
         <v>603</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>634</v>
+        <v>605</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>657</v>
+        <v>626</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>645</v>
+        <v>612</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>651</v>
+        <v>619</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A150" s="18"/>
+      <c r="A150" s="16"/>
       <c r="B150" s="15" t="s">
         <v>640</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>635</v>
+        <v>606</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>658</v>
+        <v>627</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>646</v>
+        <v>613</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>652</v>
+        <v>620</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A151" s="18"/>
+      <c r="A151" s="16"/>
       <c r="B151" s="15" t="s">
         <v>641</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>636</v>
+        <v>607</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>659</v>
+        <v>628</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>632</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>647</v>
+        <v>614</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>653</v>
+        <v>621</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A152" s="18"/>
+      <c r="A152" s="16"/>
       <c r="B152" s="15" t="s">
         <v>642</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>637</v>
+        <v>608</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>660</v>
+        <v>629</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>663</v>
+        <v>633</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>648</v>
+        <v>615</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A153" s="18"/>
+        <v>622</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A153" s="16"/>
       <c r="B153" s="15" t="s">
         <v>643</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>638</v>
+        <v>609</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>663</v>
+        <v>630</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>649</v>
+        <v>616</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>655</v>
+        <v>623</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A154" s="18"/>
+      <c r="A154" s="16"/>
       <c r="B154" s="15" t="s">
         <v>644</v>
       </c>
       <c r="C154" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A155" s="16"/>
+      <c r="B155" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A156" s="16"/>
+      <c r="B156" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A157" s="16"/>
+      <c r="B157" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A158" s="16"/>
+      <c r="B158" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A159" s="16"/>
+      <c r="B159" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A160" s="16"/>
+      <c r="B160" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D160" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="E154" s="2" t="s">
+      <c r="E160" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="F154" s="2" t="s">
+      <c r="F160" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="G154" s="2" t="s">
+      <c r="G160" s="2" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="155" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="9"/>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="10"/>
-      <c r="G155" s="10"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B156" s="7" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B157" s="15" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B158" s="15" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B159" s="15" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B160" s="15" t="s">
-        <v>670</v>
-      </c>
+    <row r="161" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="9"/>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="10"/>
+      <c r="G161" s="10"/>
+    </row>
+    <row r="162" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A162" s="25" t="s">
+        <v>684</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A163" s="25"/>
+      <c r="B163" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A164" s="25"/>
+      <c r="B164" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A165" s="25"/>
+      <c r="B165" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A166" s="25"/>
+      <c r="B166" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A167" s="25"/>
+      <c r="B167" s="15" t="s">
+        <v>734</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A168" s="25"/>
+      <c r="B168" s="15" t="s">
+        <v>735</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A169" s="25"/>
+      <c r="B169" s="15" t="s">
+        <v>736</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="9"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
+      <c r="G170" s="10"/>
+    </row>
+    <row r="171" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A171" s="26" t="s">
+        <v>737</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A172" s="26"/>
+      <c r="B172" s="15" t="s">
+        <v>739</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A173" s="26"/>
+      <c r="B173" s="15" t="s">
+        <v>740</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A174" s="26"/>
+      <c r="B174" s="15" t="s">
+        <v>741</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A175" s="26"/>
+      <c r="B175" s="15" t="s">
+        <v>742</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A176" s="26"/>
+      <c r="B176" s="15" t="s">
+        <v>743</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="9"/>
+      <c r="C177" s="10"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="10"/>
+      <c r="G177" s="10"/>
+    </row>
+    <row r="178" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A178" s="18" t="s">
+        <v>775</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A179" s="18"/>
+      <c r="B179" s="15" t="s">
+        <v>770</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A180" s="18"/>
+      <c r="B180" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A181" s="18"/>
+      <c r="B181" s="15" t="s">
+        <v>772</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A182" s="18"/>
+      <c r="B182" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A183" s="18"/>
+      <c r="B183" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="28"/>
+      <c r="C184" s="29"/>
+      <c r="D184" s="29"/>
+      <c r="E184" s="29"/>
+      <c r="G184" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A96:A111"/>
-    <mergeCell ref="A113:A126"/>
-    <mergeCell ref="A128:A140"/>
-    <mergeCell ref="A142:A154"/>
-    <mergeCell ref="A82:A94"/>
+  <mergeCells count="13">
+    <mergeCell ref="A162:A169"/>
+    <mergeCell ref="A171:A176"/>
+    <mergeCell ref="A178:A183"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A18"/>
     <mergeCell ref="A20:A52"/>
     <mergeCell ref="A54:A63"/>
     <mergeCell ref="A65:A80"/>
+    <mergeCell ref="A102:A117"/>
+    <mergeCell ref="A119:A132"/>
+    <mergeCell ref="A134:A146"/>
+    <mergeCell ref="A148:A160"/>
+    <mergeCell ref="A88:A100"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/TestCases Daraz.pk.xlsx
+++ b/TestCases Daraz.pk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SQA\SMIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDD4534-5460-44B1-B06B-B1FE4A7D617C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6A01267-E0D4-4A7F-AA3F-FDB4074E6868}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="843">
   <si>
     <t>Process/Feature</t>
   </si>
@@ -2789,6 +2789,145 @@
   </si>
   <si>
     <t>Verify that a user receives an error message when trying to compare products that are not compatible</t>
+  </si>
+  <si>
+    <t>Verify that a customer can search for a smartphone using the search bar</t>
+  </si>
+  <si>
+    <t>Verify that the system displays search results based on filters</t>
+  </si>
+  <si>
+    <t>Verify that a customer can select a product and view its details</t>
+  </si>
+  <si>
+    <t>Customer is on the Daraz.pk homepage.</t>
+  </si>
+  <si>
+    <t>Customer has performed a search for 'smartphone'.</t>
+  </si>
+  <si>
+    <t>Customer has selected a product from the search results.</t>
+  </si>
+  <si>
+    <t>Search term: 'smartphone'</t>
+  </si>
+  <si>
+    <t>Selected smartphone</t>
+  </si>
+  <si>
+    <t>1. Go to Daraz.pk.
+2. Enter 'smartphone' in the search bar.
+3. Click the search icon.</t>
+  </si>
+  <si>
+    <t>1. Perform search for 'smartphone'.
+2. Apply filters for brand, price, and ratings.</t>
+  </si>
+  <si>
+    <t>Filtered results are displayed according to the selected criteria.</t>
+  </si>
+  <si>
+    <t>Product details are displayed correctly.</t>
+  </si>
+  <si>
+    <t>Search results for 'smartphone' are displayed.</t>
+  </si>
+  <si>
+    <t>Product Search</t>
+  </si>
+  <si>
+    <t>1. Click on a product from the search results.
+2. View product details.</t>
+  </si>
+  <si>
+    <t>Verify that a customer can proceed to checkout after selecting the payment method</t>
+  </si>
+  <si>
+    <t>Customer is on the payment selection page</t>
+  </si>
+  <si>
+    <t>Payment method details</t>
+  </si>
+  <si>
+    <t>1. Select a payment method.
+2. Click 'Confirm Order'.</t>
+  </si>
+  <si>
+    <t>Order is confirmed successfully, and confirmation is displayed.</t>
+  </si>
+  <si>
+    <t>Verify that a seller can log in to their account</t>
+  </si>
+  <si>
+    <t>Verify that a seller can access the seller dashboard</t>
+  </si>
+  <si>
+    <t>Seller has a registered account.</t>
+  </si>
+  <si>
+    <t>Seller is logged in to their account.</t>
+  </si>
+  <si>
+    <t>1. Go to the login page.
+2. Enter valid credentials.
+3. Click 'Login'.</t>
+  </si>
+  <si>
+    <t>1. Click on 'Seller Dashboard' from the menu.</t>
+  </si>
+  <si>
+    <t>Seller dashboard is displayed.</t>
+  </si>
+  <si>
+    <t>Seller is logged in successfully.</t>
+  </si>
+  <si>
+    <t>Verify that the system processes the listing successfully</t>
+  </si>
+  <si>
+    <t>Seller has filled in the required fields.</t>
+  </si>
+  <si>
+    <t>1. Click 'Submit' to process the listing.</t>
+  </si>
+  <si>
+    <t>Product listing is processed successfully.</t>
+  </si>
+  <si>
+    <t>Verify that the product appears in the catalog after successful addition</t>
+  </si>
+  <si>
+    <t>Seller has successfully added a product.</t>
+  </si>
+  <si>
+    <t>1. Check the product catalog for the newly added product.</t>
+  </si>
+  <si>
+    <t>Product appears in the catalog.</t>
+  </si>
+  <si>
+    <t>TC-171</t>
+  </si>
+  <si>
+    <t>TC-172</t>
+  </si>
+  <si>
+    <t>TC-173</t>
+  </si>
+  <si>
+    <t>TC-174</t>
+  </si>
+  <si>
+    <t>TC-175</t>
+  </si>
+  <si>
+    <t>TC-176</t>
+  </si>
+  <si>
+    <t>TC-177</t>
+  </si>
+  <si>
+    <t>TC-178</t>
   </si>
 </sst>
 </file>
@@ -2812,7 +2951,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2888,6 +3027,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2999,10 +3144,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3284,10 +3429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G184"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C184" sqref="C184"/>
+    <sheetView tabSelected="1" topLeftCell="A188" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B192" sqref="B192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4904,7 +5049,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
+      <c r="A81" s="24"/>
       <c r="B81" s="15" t="s">
         <v>303</v>
       </c>
@@ -4925,7 +5070,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
+      <c r="A82" s="24"/>
       <c r="B82" s="15" t="s">
         <v>304</v>
       </c>
@@ -4946,7 +5091,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
+      <c r="A83" s="24"/>
       <c r="B83" s="15" t="s">
         <v>305</v>
       </c>
@@ -4967,7 +5112,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
+      <c r="A84" s="24"/>
       <c r="B84" s="15" t="s">
         <v>306</v>
       </c>
@@ -4988,7 +5133,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
+      <c r="A85" s="24"/>
       <c r="B85" s="15" t="s">
         <v>307</v>
       </c>
@@ -5006,7 +5151,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
+      <c r="A86" s="24"/>
       <c r="B86" s="15" t="s">
         <v>308</v>
       </c>
@@ -5023,49 +5168,52 @@
         <v>765</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="9"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="G87" s="10"/>
-    </row>
-    <row r="88" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="19" t="s">
+    <row r="87" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="24"/>
+      <c r="B87" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="9"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="G88" s="10"/>
+    </row>
+    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="B88" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="C88" s="2" t="s">
+      <c r="B89" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F89" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>300</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="19"/>
-      <c r="B89" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -5074,34 +5222,34 @@
         <v>343</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="19"/>
       <c r="B91" s="15" t="s">
         <v>360</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5110,52 +5258,52 @@
         <v>361</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="19"/>
       <c r="B93" s="15" t="s">
         <v>362</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="19"/>
       <c r="B94" s="15" t="s">
         <v>363</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5164,16 +5312,16 @@
         <v>366</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5182,16 +5330,16 @@
         <v>367</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5200,16 +5348,16 @@
         <v>368</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5218,16 +5366,16 @@
         <v>369</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5236,86 +5384,83 @@
         <v>370</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="19"/>
       <c r="B100" s="15" t="s">
         <v>404</v>
       </c>
       <c r="C100" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A101" s="19"/>
+      <c r="B101" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D101" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="G101" s="2" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="G101" s="10"/>
-    </row>
-    <row r="102" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A102" s="16" t="s">
+    <row r="102" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="14"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="G102" s="10"/>
+    </row>
+    <row r="103" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A103" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="B102" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="C102" s="2" t="s">
+      <c r="B103" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D103" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="F103" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="G103" s="2" t="s">
         <v>379</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A103" s="16"/>
-      <c r="B103" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -5324,34 +5469,37 @@
         <v>407</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>388</v>
+        <v>383</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A105" s="16"/>
       <c r="B105" s="15" t="s">
         <v>411</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5360,16 +5508,16 @@
         <v>412</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>382</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5378,16 +5526,16 @@
         <v>422</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5396,16 +5544,16 @@
         <v>423</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5414,16 +5562,16 @@
         <v>424</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5432,52 +5580,52 @@
         <v>446</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" s="16"/>
       <c r="B111" s="15" t="s">
         <v>447</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A112" s="16"/>
       <c r="B112" s="15" t="s">
         <v>448</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5486,16 +5634,16 @@
         <v>449</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5504,19 +5652,16 @@
         <v>450</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5525,199 +5670,196 @@
         <v>451</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>442</v>
+        <v>433</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="16"/>
       <c r="B116" s="15" t="s">
         <v>452</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="16"/>
       <c r="B117" s="15" t="s">
         <v>471</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A118" s="16"/>
+      <c r="B118" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="C118" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="F118" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="G118" s="2" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="9"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10"/>
-      <c r="G118" s="10"/>
-    </row>
-    <row r="119" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A119" s="17" t="s">
+    <row r="119" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" s="16"/>
+      <c r="B119" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="16"/>
+      <c r="B120" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="16"/>
+      <c r="B121" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A122" s="16"/>
+      <c r="B122" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="9"/>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="G123" s="10"/>
+    </row>
+    <row r="124" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A124" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="B119" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="E119" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="F119" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="G119" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A120" s="17"/>
-      <c r="B120" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A121" s="17"/>
-      <c r="B121" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="G121" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A122" s="17"/>
-      <c r="B122" s="15" t="s">
-        <v>475</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="G122" s="2" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A123" s="17"/>
-      <c r="B123" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="G123" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A124" s="17"/>
       <c r="B124" s="15" t="s">
         <v>498</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>489</v>
+        <v>465</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>469</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A125" s="17"/>
       <c r="B125" s="15" t="s">
         <v>511</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>490</v>
+        <v>466</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>469</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5726,34 +5868,37 @@
         <v>512</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>470</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A127" s="17"/>
       <c r="B127" s="15" t="s">
         <v>521</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>493</v>
+        <v>460</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>507</v>
+        <v>468</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>499</v>
+        <v>464</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>503</v>
+        <v>456</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5762,73 +5907,73 @@
         <v>522</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>508</v>
+        <v>488</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>492</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" s="17"/>
       <c r="B129" s="15" t="s">
         <v>523</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" s="17"/>
       <c r="B130" s="15" t="s">
         <v>548</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>496</v>
+        <v>478</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" s="17"/>
       <c r="B131" s="15" t="s">
         <v>549</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>513</v>
+        <v>479</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>514</v>
+        <v>483</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>515</v>
+        <v>487</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -5837,174 +5982,162 @@
         <v>550</v>
       </c>
       <c r="C132" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A133" s="17"/>
+      <c r="B133" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A134" s="17"/>
+      <c r="B134" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A135" s="17"/>
+      <c r="B135" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A136" s="17"/>
+      <c r="B136" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A137" s="17"/>
+      <c r="B137" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D137" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="E137" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="F132" s="2" t="s">
+      <c r="F137" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="G132" s="2" t="s">
+      <c r="G137" s="2" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="133" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="9" t="s">
+    <row r="138" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B138" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10"/>
-      <c r="G133" s="10"/>
-    </row>
-    <row r="134" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A134" s="18" t="s">
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10"/>
+      <c r="G138" s="10"/>
+    </row>
+    <row r="139" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A139" s="18" t="s">
         <v>595</v>
       </c>
-      <c r="B134" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="F134" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="G134" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A135" s="18"/>
-      <c r="B135" s="15" t="s">
-        <v>552</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="G135" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A136" s="18"/>
-      <c r="B136" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="D136" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="E136" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="F136" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="G136" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A137" s="18"/>
-      <c r="B137" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A138" s="18"/>
-      <c r="B138" s="15" t="s">
-        <v>582</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="G138" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A139" s="18"/>
       <c r="B139" s="15" t="s">
         <v>583</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>553</v>
+        <v>524</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>570</v>
+        <v>539</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>575</v>
+        <v>544</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>560</v>
+        <v>529</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A140" s="18"/>
       <c r="B140" s="15" t="s">
         <v>584</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>554</v>
+        <v>525</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>576</v>
+        <v>540</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>561</v>
+        <v>530</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>566</v>
+        <v>535</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6013,58 +6146,61 @@
         <v>596</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>555</v>
+        <v>526</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>572</v>
+        <v>541</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>577</v>
+        <v>545</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A142" s="18"/>
       <c r="B142" s="15" t="s">
         <v>597</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>573</v>
+        <v>542</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>578</v>
+        <v>546</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>563</v>
+        <v>532</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A143" s="18"/>
       <c r="B143" s="15" t="s">
         <v>598</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>574</v>
+        <v>543</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>547</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>564</v>
+        <v>533</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>569</v>
+        <v>538</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6073,181 +6209,187 @@
         <v>599</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>579</v>
+        <v>553</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>594</v>
+        <v>575</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" s="18"/>
       <c r="B145" s="15" t="s">
         <v>600</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>580</v>
+        <v>554</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>592</v>
+        <v>571</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>576</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" s="18"/>
       <c r="B146" s="15" t="s">
         <v>601</v>
       </c>
       <c r="C146" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A147" s="18"/>
+      <c r="B147" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A148" s="18"/>
+      <c r="B148" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A149" s="18"/>
+      <c r="B149" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A150" s="18"/>
+      <c r="B150" s="15" t="s">
+        <v>641</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A151" s="18"/>
+      <c r="B151" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D151" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E151" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="F146" s="2" t="s">
+      <c r="F151" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="G146" s="2" t="s">
+      <c r="G151" s="2" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="147" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="9"/>
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="10"/>
-      <c r="G147" s="10"/>
-    </row>
-    <row r="148" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="16" t="s">
+    <row r="152" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="9"/>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="G152" s="10"/>
+    </row>
+    <row r="153" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A153" s="16" t="s">
         <v>665</v>
       </c>
-      <c r="B148" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="C148" s="2" t="s">
+      <c r="B153" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="F148" s="2" t="s">
+      <c r="F153" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="G148" s="2" t="s">
+      <c r="G153" s="2" t="s">
         <v>618</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A149" s="16"/>
-      <c r="B149" s="15" t="s">
-        <v>603</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="F149" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="G149" s="2" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A150" s="16"/>
-      <c r="B150" s="15" t="s">
-        <v>640</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>613</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A151" s="16"/>
-      <c r="B151" s="15" t="s">
-        <v>641</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>607</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>628</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="F151" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="G151" s="2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A152" s="16"/>
-      <c r="B152" s="15" t="s">
-        <v>642</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="G152" s="2" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A153" s="16"/>
-      <c r="B153" s="15" t="s">
-        <v>643</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="G153" s="2" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6256,16 +6398,16 @@
         <v>644</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6274,16 +6416,16 @@
         <v>666</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>634</v>
+        <v>606</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>657</v>
+        <v>627</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>645</v>
+        <v>613</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>651</v>
+        <v>620</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6292,16 +6434,19 @@
         <v>667</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>635</v>
+        <v>607</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>658</v>
+        <v>628</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>632</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>652</v>
+        <v>621</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6310,16 +6455,19 @@
         <v>668</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>636</v>
+        <v>608</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>659</v>
+        <v>629</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>633</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>647</v>
+        <v>615</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>653</v>
+        <v>622</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6328,40 +6476,34 @@
         <v>669</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>637</v>
+        <v>609</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>663</v>
+        <v>630</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>648</v>
+        <v>616</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" s="16"/>
       <c r="B159" s="15" t="s">
         <v>670</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>638</v>
+        <v>610</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>661</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>663</v>
+        <v>631</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>649</v>
+        <v>617</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>655</v>
+        <v>624</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6370,139 +6512,142 @@
         <v>681</v>
       </c>
       <c r="C160" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A161" s="16"/>
+      <c r="B161" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A162" s="16"/>
+      <c r="B162" s="15" t="s">
+        <v>683</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A163" s="16"/>
+      <c r="B163" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A164" s="16"/>
+      <c r="B164" s="15" t="s">
+        <v>707</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A165" s="16"/>
+      <c r="B165" s="15" t="s">
+        <v>708</v>
+      </c>
+      <c r="C165" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D165" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="E165" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="F160" s="2" t="s">
+      <c r="F165" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="G160" s="2" t="s">
+      <c r="G165" s="2" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="161" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="9"/>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
-      <c r="E161" s="10"/>
-      <c r="G161" s="10"/>
-    </row>
-    <row r="162" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A162" s="25" t="s">
+    <row r="166" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="9"/>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
+      <c r="G166" s="10"/>
+    </row>
+    <row r="167" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A167" s="25" t="s">
         <v>684</v>
       </c>
-      <c r="B162" s="7" t="s">
-        <v>682</v>
-      </c>
-      <c r="C162" s="2" t="s">
+      <c r="B167" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="C167" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D167" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="F162" s="2" t="s">
+      <c r="F167" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="G162" s="2" t="s">
+      <c r="G167" s="2" t="s">
         <v>673</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A163" s="25"/>
-      <c r="B163" s="15" t="s">
-        <v>683</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>674</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>693</v>
-      </c>
-      <c r="G163" s="2" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A164" s="25"/>
-      <c r="B164" s="15" t="s">
-        <v>706</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>689</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A165" s="25"/>
-      <c r="B165" s="15" t="s">
-        <v>707</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A166" s="25"/>
-      <c r="B166" s="15" t="s">
-        <v>708</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>677</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>686</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>698</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A167" s="25"/>
-      <c r="B167" s="15" t="s">
-        <v>734</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>700</v>
-      </c>
-      <c r="G167" s="2" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -6511,304 +6656,459 @@
         <v>735</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>688</v>
-      </c>
-      <c r="E168" s="2" t="s">
-        <v>690</v>
+        <v>672</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A169" s="25"/>
       <c r="B169" s="15" t="s">
         <v>736</v>
       </c>
       <c r="C169" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A170" s="25"/>
+      <c r="B170" s="15" t="s">
+        <v>738</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A171" s="25"/>
+      <c r="B171" s="15" t="s">
+        <v>739</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A172" s="25"/>
+      <c r="B172" s="15" t="s">
+        <v>740</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A173" s="25"/>
+      <c r="B173" s="15" t="s">
+        <v>741</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A174" s="25"/>
+      <c r="B174" s="15" t="s">
+        <v>742</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D174" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="F169" s="2" t="s">
+      <c r="F174" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="G169" s="2" t="s">
+      <c r="G174" s="2" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="170" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="9"/>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10"/>
-      <c r="E170" s="10"/>
-      <c r="G170" s="10"/>
-    </row>
-    <row r="171" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A171" s="26" t="s">
+    <row r="175" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="9"/>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
+      <c r="E175" s="10"/>
+      <c r="G175" s="10"/>
+    </row>
+    <row r="176" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A176" s="26" t="s">
         <v>737</v>
       </c>
-      <c r="B171" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="C171" s="2" t="s">
+      <c r="B176" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D176" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="F171" s="2" t="s">
+      <c r="F176" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="G171" s="2" t="s">
+      <c r="G176" s="2" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="172" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A172" s="26"/>
-      <c r="B172" s="15" t="s">
-        <v>739</v>
-      </c>
-      <c r="C172" s="2" t="s">
+    <row r="177" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A177" s="26"/>
+      <c r="B177" s="15" t="s">
+        <v>769</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D177" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="F172" s="2" t="s">
+      <c r="F177" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="G172" s="2" t="s">
+      <c r="G177" s="2" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A173" s="26"/>
-      <c r="B173" s="15" t="s">
-        <v>740</v>
-      </c>
-      <c r="C173" s="2" t="s">
+    <row r="178" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A178" s="26"/>
+      <c r="B178" s="15" t="s">
+        <v>770</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D178" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="E178" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="F173" s="2" t="s">
+      <c r="F178" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="G173" s="2" t="s">
+      <c r="G178" s="2" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A174" s="26"/>
-      <c r="B174" s="15" t="s">
-        <v>741</v>
-      </c>
-      <c r="C174" s="2" t="s">
+    <row r="179" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A179" s="26"/>
+      <c r="B179" s="15" t="s">
+        <v>771</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="D179" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="F174" s="2" t="s">
+      <c r="F179" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="G174" s="2" t="s">
+      <c r="G179" s="2" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A175" s="26"/>
-      <c r="B175" s="15" t="s">
-        <v>742</v>
-      </c>
-      <c r="C175" s="2" t="s">
+    <row r="180" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A180" s="26"/>
+      <c r="B180" s="15" t="s">
+        <v>772</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="D180" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="F175" s="2" t="s">
+      <c r="F180" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="G175" s="2" t="s">
+      <c r="G180" s="2" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A176" s="26"/>
-      <c r="B176" s="15" t="s">
-        <v>743</v>
-      </c>
-      <c r="C176" s="2" t="s">
+    <row r="181" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A181" s="26"/>
+      <c r="B181" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="D181" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="F176" s="2" t="s">
+      <c r="F181" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="G176" s="2" t="s">
+      <c r="G181" s="2" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="177" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="9"/>
-      <c r="C177" s="10"/>
-      <c r="D177" s="10"/>
-      <c r="E177" s="10"/>
-      <c r="G177" s="10"/>
-    </row>
-    <row r="178" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A178" s="18" t="s">
+    <row r="182" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B182" s="9"/>
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="10"/>
+      <c r="G182" s="10"/>
+    </row>
+    <row r="183" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A183" s="18" t="s">
         <v>775</v>
       </c>
-      <c r="B178" s="7" t="s">
-        <v>769</v>
-      </c>
-      <c r="C178" s="2" t="s">
+      <c r="B183" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="C183" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D183" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="F178" s="2" t="s">
+      <c r="F183" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="G178" s="2" t="s">
+      <c r="G183" s="2" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A179" s="18"/>
-      <c r="B179" s="15" t="s">
-        <v>770</v>
-      </c>
-      <c r="C179" s="2" t="s">
+    <row r="184" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A184" s="18"/>
+      <c r="B184" s="15" t="s">
+        <v>835</v>
+      </c>
+      <c r="C184" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="D184" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="E179" s="2" t="s">
+      <c r="E184" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="F179" s="2" t="s">
+      <c r="F184" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="G179" s="2" t="s">
+      <c r="G184" s="2" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A180" s="18"/>
-      <c r="B180" s="15" t="s">
-        <v>771</v>
-      </c>
-      <c r="C180" s="2" t="s">
+    <row r="185" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A185" s="18"/>
+      <c r="B185" s="15" t="s">
+        <v>836</v>
+      </c>
+      <c r="C185" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D185" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="F180" s="2" t="s">
+      <c r="F185" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="G180" s="2" t="s">
+      <c r="G185" s="2" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A181" s="18"/>
-      <c r="B181" s="15" t="s">
-        <v>772</v>
-      </c>
-      <c r="C181" s="2" t="s">
+    <row r="186" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A186" s="18"/>
+      <c r="B186" s="15" t="s">
+        <v>837</v>
+      </c>
+      <c r="C186" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D186" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="F181" s="2" t="s">
+      <c r="F186" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="G181" s="2" t="s">
+      <c r="G186" s="2" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A182" s="18"/>
-      <c r="B182" s="15" t="s">
-        <v>773</v>
-      </c>
-      <c r="C182" s="2" t="s">
+    <row r="187" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A187" s="18"/>
+      <c r="B187" s="15" t="s">
+        <v>838</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D187" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="F182" s="2" t="s">
+      <c r="F187" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="G182" s="2" t="s">
+      <c r="G187" s="2" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A183" s="18"/>
-      <c r="B183" s="15" t="s">
-        <v>774</v>
-      </c>
-      <c r="C183" s="2" t="s">
+    <row r="188" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A188" s="18"/>
+      <c r="B188" s="15" t="s">
+        <v>839</v>
+      </c>
+      <c r="C188" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="D188" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="E183" s="2" t="s">
+      <c r="E188" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="F183" s="2" t="s">
+      <c r="F188" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="G183" s="2" t="s">
+      <c r="G188" s="2" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="184" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="28"/>
-      <c r="C184" s="29"/>
-      <c r="D184" s="29"/>
-      <c r="E184" s="29"/>
-      <c r="G184" s="29"/>
+    <row r="189" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C189" s="28"/>
+      <c r="D189" s="28"/>
+      <c r="E189" s="28"/>
+      <c r="G189" s="28"/>
+    </row>
+    <row r="190" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A190" s="29" t="s">
+        <v>812</v>
+      </c>
+      <c r="B190" s="15" t="s">
+        <v>840</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A191" s="29"/>
+      <c r="B191" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A192" s="29"/>
+      <c r="B192" s="15" t="s">
+        <v>842</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>810</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A162:A169"/>
-    <mergeCell ref="A171:A176"/>
-    <mergeCell ref="A178:A183"/>
+  <mergeCells count="14">
+    <mergeCell ref="A167:A174"/>
+    <mergeCell ref="A176:A181"/>
+    <mergeCell ref="A183:A188"/>
+    <mergeCell ref="A190:A192"/>
+    <mergeCell ref="A65:A87"/>
+    <mergeCell ref="A103:A122"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A5:A18"/>
     <mergeCell ref="A20:A52"/>
     <mergeCell ref="A54:A63"/>
-    <mergeCell ref="A65:A80"/>
-    <mergeCell ref="A102:A117"/>
-    <mergeCell ref="A119:A132"/>
-    <mergeCell ref="A134:A146"/>
-    <mergeCell ref="A148:A160"/>
-    <mergeCell ref="A88:A100"/>
+    <mergeCell ref="A124:A137"/>
+    <mergeCell ref="A139:A151"/>
+    <mergeCell ref="A153:A165"/>
+    <mergeCell ref="A89:A101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
